--- a/homework/05/report/params.xlsx
+++ b/homework/05/report/params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Honza\git\NI-KOP\homework\05\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1AC79C-ECBD-4ACA-8D91-1DB8ED1C1BB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD34D506-F4DD-4DAB-934C-4CA10379B11C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cross" sheetId="45" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="select" sheetId="48" r:id="rId4"/>
     <sheet name="crossover" sheetId="49" r:id="rId5"/>
     <sheet name="mutation" sheetId="50" r:id="rId6"/>
+    <sheet name="sady test" sheetId="51" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -97,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="16">
   <si>
     <t>max</t>
   </si>
@@ -128,13 +129,32 @@
   <si>
     <t>deterministic crowding</t>
   </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -173,10 +193,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1476,37 +1497,18 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{F5D05F6E-A05E-4728-AFD3-386EB277150F}">
-                  <c16:filteredLitCache>
-                    <c:strCache>
-                      <c:ptCount val="0"/>
-                    </c:strCache>
-                  </c16:filteredLitCache>
-                </c:ext>
-              </c:extLst>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>standartní</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v> deterministický crowding</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>standartní</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> deterministický crowding</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>(select!$D$24,select!$F$24,select!$H$24)</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>(select!$D$24,select!$F$24)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
@@ -1518,6 +1520,7 @@
                   <c:v>0.11553477079896415</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -1543,37 +1546,18 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{F5D05F6E-A05E-4728-AFD3-386EB277150F}">
-                  <c16:filteredLitCache>
-                    <c:strCache>
-                      <c:ptCount val="0"/>
-                    </c:strCache>
-                  </c16:filteredLitCache>
-                </c:ext>
-              </c:extLst>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>standartní</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v> deterministický crowding</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>standartní</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> deterministický crowding</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>(select!$D$26,select!$F$26,select!$H$26)</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>(select!$D$26,select!$F$26)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
@@ -1585,6 +1569,7 @@
                   <c:v>0.53801681850035044</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -6584,21 +6569,21 @@
         <v>15037</v>
       </c>
       <c r="D2" s="2">
-        <f>(ABS($B2-C2)/MAX($B2,C2))</f>
+        <f t="shared" ref="D2:D21" si="0">(ABS($B2-C2)/MAX($B2,C2))</f>
         <v>0.34913214734017228</v>
       </c>
       <c r="E2">
         <v>13965</v>
       </c>
       <c r="F2" s="2">
-        <f>(ABS($B2-E2)/MAX($B2,E2))</f>
+        <f t="shared" ref="F2:F21" si="1">(ABS($B2-E2)/MAX($B2,E2))</f>
         <v>0.39553304765614855</v>
       </c>
       <c r="G2">
         <v>13577</v>
       </c>
       <c r="H2" s="2">
-        <f>(ABS($B2-G2)/MAX($B2,G2))</f>
+        <f t="shared" ref="H2:H21" si="2">(ABS($B2-G2)/MAX($B2,G2))</f>
         <v>0.41232740336752804</v>
       </c>
     </row>
@@ -6610,21 +6595,21 @@
         <v>13283</v>
       </c>
       <c r="D3" s="2">
-        <f>(ABS($B3-C3)/MAX($B3,C3))</f>
+        <f t="shared" si="0"/>
         <v>0.14977917173398195</v>
       </c>
       <c r="E3">
         <v>14742</v>
       </c>
       <c r="F3" s="2">
-        <f>(ABS($B3-E3)/MAX($B3,E3))</f>
+        <f t="shared" si="1"/>
         <v>5.639121807591372E-2</v>
       </c>
       <c r="G3">
         <v>14625</v>
       </c>
       <c r="H3" s="2">
-        <f>(ABS($B3-G3)/MAX($B3,G3))</f>
+        <f t="shared" si="2"/>
         <v>6.3880176662612809E-2</v>
       </c>
     </row>
@@ -6636,21 +6621,21 @@
         <v>13629</v>
       </c>
       <c r="D4" s="2">
-        <f>(ABS($B4-C4)/MAX($B4,C4))</f>
+        <f t="shared" si="0"/>
         <v>0.20409950946040645</v>
       </c>
       <c r="E4">
         <v>13109</v>
       </c>
       <c r="F4" s="2">
-        <f>(ABS($B4-E4)/MAX($B4,E4))</f>
+        <f t="shared" si="1"/>
         <v>0.2344662462041579</v>
       </c>
       <c r="G4">
         <v>13109</v>
       </c>
       <c r="H4" s="2">
-        <f>(ABS($B4-G4)/MAX($B4,G4))</f>
+        <f t="shared" si="2"/>
         <v>0.2344662462041579</v>
       </c>
     </row>
@@ -6662,21 +6647,21 @@
         <v>16399</v>
       </c>
       <c r="D5" s="2">
-        <f>(ABS($B5-C5)/MAX($B5,C5))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5">
         <v>16399</v>
       </c>
       <c r="F5" s="2">
-        <f>(ABS($B5-E5)/MAX($B5,E5))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G5">
         <v>14049</v>
       </c>
       <c r="H5" s="2">
-        <f>(ABS($B5-G5)/MAX($B5,G5))</f>
+        <f t="shared" si="2"/>
         <v>0.14330142081834257</v>
       </c>
     </row>
@@ -6688,21 +6673,21 @@
         <v>15690</v>
       </c>
       <c r="D6" s="2">
-        <f>(ABS($B6-C6)/MAX($B6,C6))</f>
+        <f t="shared" si="0"/>
         <v>0.21998508575689785</v>
       </c>
       <c r="E6">
         <v>13990</v>
       </c>
       <c r="F6" s="2">
-        <f>(ABS($B6-E6)/MAX($B6,E6))</f>
+        <f t="shared" si="1"/>
         <v>0.30449913000248569</v>
       </c>
       <c r="G6">
         <v>14499</v>
       </c>
       <c r="H6" s="2">
-        <f>(ABS($B6-G6)/MAX($B6,G6))</f>
+        <f t="shared" si="2"/>
         <v>0.2791946308724832</v>
       </c>
     </row>
@@ -6714,21 +6699,21 @@
         <v>16373</v>
       </c>
       <c r="D7" s="2">
-        <f>(ABS($B7-C7)/MAX($B7,C7))</f>
+        <f t="shared" si="0"/>
         <v>0.16022977894034979</v>
       </c>
       <c r="E7">
         <v>15817</v>
       </c>
       <c r="F7" s="2">
-        <f>(ABS($B7-E7)/MAX($B7,E7))</f>
+        <f t="shared" si="1"/>
         <v>0.18874698671590501</v>
       </c>
       <c r="G7">
         <v>15817</v>
       </c>
       <c r="H7" s="2">
-        <f>(ABS($B7-G7)/MAX($B7,G7))</f>
+        <f t="shared" si="2"/>
         <v>0.18874698671590501</v>
       </c>
     </row>
@@ -6740,21 +6725,21 @@
         <v>14953</v>
       </c>
       <c r="D8" s="2">
-        <f>(ABS($B8-C8)/MAX($B8,C8))</f>
+        <f t="shared" si="0"/>
         <v>0.2085009527842473</v>
       </c>
       <c r="E8">
         <v>14953</v>
       </c>
       <c r="F8" s="2">
-        <f>(ABS($B8-E8)/MAX($B8,E8))</f>
+        <f t="shared" si="1"/>
         <v>0.2085009527842473</v>
       </c>
       <c r="G8">
         <v>14953</v>
       </c>
       <c r="H8" s="2">
-        <f>(ABS($B8-G8)/MAX($B8,G8))</f>
+        <f t="shared" si="2"/>
         <v>0.2085009527842473</v>
       </c>
     </row>
@@ -6766,21 +6751,21 @@
         <v>1715</v>
       </c>
       <c r="D9" s="2">
-        <f>(ABS($B9-C9)/MAX($B9,C9))</f>
+        <f t="shared" si="0"/>
         <v>0.47824764222695465</v>
       </c>
       <c r="E9">
         <v>1873</v>
       </c>
       <c r="F9" s="2">
-        <f>(ABS($B9-E9)/MAX($B9,E9))</f>
+        <f t="shared" si="1"/>
         <v>0.43017949498022512</v>
       </c>
       <c r="G9">
         <v>1721</v>
       </c>
       <c r="H9" s="2">
-        <f>(ABS($B9-G9)/MAX($B9,G9))</f>
+        <f t="shared" si="2"/>
         <v>0.47642226954669914</v>
       </c>
     </row>
@@ -6792,21 +6777,21 @@
         <v>1783</v>
       </c>
       <c r="D10" s="2">
-        <f>(ABS($B10-C10)/MAX($B10,C10))</f>
+        <f t="shared" si="0"/>
         <v>0.30676516329704512</v>
       </c>
       <c r="E10">
         <v>1909</v>
       </c>
       <c r="F10" s="2">
-        <f>(ABS($B10-E10)/MAX($B10,E10))</f>
+        <f t="shared" si="1"/>
         <v>0.25777604976671853</v>
       </c>
       <c r="G10">
         <v>1996</v>
       </c>
       <c r="H10" s="2">
-        <f>(ABS($B10-G10)/MAX($B10,G10))</f>
+        <f t="shared" si="2"/>
         <v>0.22395023328149299</v>
       </c>
     </row>
@@ -6818,21 +6803,21 @@
         <v>2287</v>
       </c>
       <c r="D11" s="2">
-        <f>(ABS($B11-C11)/MAX($B11,C11))</f>
+        <f t="shared" si="0"/>
         <v>4.5492487479131885E-2</v>
       </c>
       <c r="E11">
         <v>2266</v>
       </c>
       <c r="F11" s="2">
-        <f>(ABS($B11-E11)/MAX($B11,E11))</f>
+        <f t="shared" si="1"/>
         <v>5.4257095158597661E-2</v>
       </c>
       <c r="G11">
         <v>2044</v>
       </c>
       <c r="H11" s="2">
-        <f>(ABS($B11-G11)/MAX($B11,G11))</f>
+        <f t="shared" si="2"/>
         <v>0.14691151919866444</v>
       </c>
     </row>
@@ -6847,21 +6832,21 @@
         <v>142497</v>
       </c>
       <c r="D12" s="2">
-        <f>(ABS($B12-C12)/MAX($B12,C12))</f>
+        <f t="shared" si="0"/>
         <v>3.6289645913743919E-3</v>
       </c>
       <c r="E12">
         <v>143016</v>
       </c>
       <c r="F12" s="2">
-        <f>(ABS($B12-E12)/MAX($B12,E12))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G12">
         <v>142497</v>
       </c>
       <c r="H12" s="2">
-        <f>(ABS($B12-G12)/MAX($B12,G12))</f>
+        <f t="shared" si="2"/>
         <v>3.6289645913743919E-3</v>
       </c>
     </row>
@@ -6873,21 +6858,21 @@
         <v>162987</v>
       </c>
       <c r="D13" s="2">
-        <f>(ABS($B13-C13)/MAX($B13,C13))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13">
         <v>162987</v>
       </c>
       <c r="F13" s="2">
-        <f>(ABS($B13-E13)/MAX($B13,E13))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G13">
         <v>138885</v>
       </c>
       <c r="H13" s="2">
-        <f>(ABS($B13-G13)/MAX($B13,G13))</f>
+        <f t="shared" si="2"/>
         <v>0.14787682453201789</v>
       </c>
     </row>
@@ -6899,21 +6884,21 @@
         <v>157990</v>
       </c>
       <c r="D14" s="2">
-        <f>(ABS($B14-C14)/MAX($B14,C14))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14">
         <v>157990</v>
       </c>
       <c r="F14" s="2">
-        <f>(ABS($B14-E14)/MAX($B14,E14))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G14">
         <v>157990</v>
       </c>
       <c r="H14" s="2">
-        <f>(ABS($B14-G14)/MAX($B14,G14))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6925,21 +6910,21 @@
         <v>176272</v>
       </c>
       <c r="D15" s="2">
-        <f>(ABS($B15-C15)/MAX($B15,C15))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15">
         <v>176272</v>
       </c>
       <c r="F15" s="2">
-        <f>(ABS($B15-E15)/MAX($B15,E15))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G15">
         <v>176272</v>
       </c>
       <c r="H15" s="2">
-        <f>(ABS($B15-G15)/MAX($B15,G15))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6951,21 +6936,21 @@
         <v>62072</v>
       </c>
       <c r="D16" s="2">
-        <f>(ABS($B16-C16)/MAX($B16,C16))</f>
+        <f t="shared" si="0"/>
         <v>1.2488664746965333E-2</v>
       </c>
       <c r="E16">
         <v>62857</v>
       </c>
       <c r="F16" s="2">
-        <f>(ABS($B16-E16)/MAX($B16,E16))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G16">
         <v>62857</v>
       </c>
       <c r="H16" s="2">
-        <f>(ABS($B16-G16)/MAX($B16,G16))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6977,21 +6962,21 @@
         <v>63121</v>
       </c>
       <c r="D17" s="2">
-        <f>(ABS($B17-C17)/MAX($B17,C17))</f>
+        <f t="shared" si="0"/>
         <v>2.4223967350976996E-2</v>
       </c>
       <c r="E17">
         <v>64688</v>
       </c>
       <c r="F17" s="2">
-        <f>(ABS($B17-E17)/MAX($B17,E17))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G17">
         <v>64688</v>
       </c>
       <c r="H17" s="2">
-        <f>(ABS($B17-G17)/MAX($B17,G17))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7003,21 +6988,21 @@
         <v>58588</v>
       </c>
       <c r="D18" s="2">
-        <f>(ABS($B18-C18)/MAX($B18,C18))</f>
+        <f t="shared" si="0"/>
         <v>0.1070944143869542</v>
       </c>
       <c r="E18">
         <v>65615</v>
       </c>
       <c r="F18" s="2">
-        <f>(ABS($B18-E18)/MAX($B18,E18))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G18">
         <v>65615</v>
       </c>
       <c r="H18" s="2">
-        <f>(ABS($B18-G18)/MAX($B18,G18))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7029,21 +7014,21 @@
         <v>33534</v>
       </c>
       <c r="D19" s="2">
-        <f>(ABS($B19-C19)/MAX($B19,C19))</f>
+        <f t="shared" si="0"/>
         <v>0.34245769524892644</v>
       </c>
       <c r="E19">
         <v>50999</v>
       </c>
       <c r="F19" s="2">
-        <f>(ABS($B19-E19)/MAX($B19,E19))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G19">
         <v>44905</v>
       </c>
       <c r="H19" s="2">
-        <f>(ABS($B19-G19)/MAX($B19,G19))</f>
+        <f t="shared" si="2"/>
         <v>0.11949253906939351</v>
       </c>
     </row>
@@ -7055,21 +7040,21 @@
         <v>58007</v>
       </c>
       <c r="D20" s="2">
-        <f>(ABS($B20-C20)/MAX($B20,C20))</f>
+        <f t="shared" si="0"/>
         <v>4.1634311959951757E-2</v>
       </c>
       <c r="E20">
         <v>60527</v>
       </c>
       <c r="F20" s="2">
-        <f>(ABS($B20-E20)/MAX($B20,E20))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G20">
         <v>59751</v>
       </c>
       <c r="H20" s="2">
-        <f>(ABS($B20-G20)/MAX($B20,G20))</f>
+        <f t="shared" si="2"/>
         <v>1.2820724635286732E-2</v>
       </c>
     </row>
@@ -7081,21 +7066,21 @@
         <v>59563</v>
       </c>
       <c r="D21" s="2">
-        <f>(ABS($B21-C21)/MAX($B21,C21))</f>
+        <f t="shared" si="0"/>
         <v>2.1182541247617169E-2</v>
       </c>
       <c r="E21">
         <v>60480</v>
       </c>
       <c r="F21" s="2">
-        <f>(ABS($B21-E21)/MAX($B21,E21))</f>
+        <f t="shared" si="1"/>
         <v>6.1131926641688032E-3</v>
       </c>
       <c r="G21">
         <v>60257</v>
       </c>
       <c r="H21" s="2">
-        <f>(ABS($B21-G21)/MAX($B21,G21))</f>
+        <f t="shared" si="2"/>
         <v>9.7778215999474137E-3</v>
       </c>
     </row>
@@ -7199,21 +7184,21 @@
         <v>8329</v>
       </c>
       <c r="D2" s="2">
-        <f>(ABS($B2-C2)/MAX($B2,C2))</f>
+        <f t="shared" ref="D2:D21" si="0">(ABS($B2-C2)/MAX($B2,C2))</f>
         <v>0.63948404969051642</v>
       </c>
       <c r="E2">
         <v>13577</v>
       </c>
       <c r="F2" s="2">
-        <f>(ABS($B2-E2)/MAX($B2,E2))</f>
+        <f t="shared" ref="F2:F21" si="1">(ABS($B2-E2)/MAX($B2,E2))</f>
         <v>0.41232740336752804</v>
       </c>
       <c r="G2">
         <v>14071</v>
       </c>
       <c r="H2" s="2">
-        <f>(ABS($B2-G2)/MAX($B2,G2))</f>
+        <f t="shared" ref="H2:H21" si="2">(ABS($B2-G2)/MAX($B2,G2))</f>
         <v>0.39094489893087475</v>
       </c>
     </row>
@@ -7225,21 +7210,21 @@
         <v>14742</v>
       </c>
       <c r="D3" s="2">
-        <f>(ABS($B3-C3)/MAX($B3,C3))</f>
+        <f t="shared" si="0"/>
         <v>5.639121807591372E-2</v>
       </c>
       <c r="E3">
         <v>14742</v>
       </c>
       <c r="F3" s="2">
-        <f>(ABS($B3-E3)/MAX($B3,E3))</f>
+        <f t="shared" si="1"/>
         <v>5.639121807591372E-2</v>
       </c>
       <c r="G3">
         <v>14742</v>
       </c>
       <c r="H3" s="2">
-        <f>(ABS($B3-G3)/MAX($B3,G3))</f>
+        <f t="shared" si="2"/>
         <v>5.639121807591372E-2</v>
       </c>
     </row>
@@ -7251,21 +7236,21 @@
         <v>13494</v>
       </c>
       <c r="D4" s="2">
-        <f>(ABS($B4-C4)/MAX($B4,C4))</f>
+        <f t="shared" si="0"/>
         <v>0.21198318149964962</v>
       </c>
       <c r="E4">
         <v>15567</v>
       </c>
       <c r="F4" s="2">
-        <f>(ABS($B4-E4)/MAX($B4,E4))</f>
+        <f t="shared" si="1"/>
         <v>9.0925017519271192E-2</v>
       </c>
       <c r="G4">
         <v>13494</v>
       </c>
       <c r="H4" s="2">
-        <f>(ABS($B4-G4)/MAX($B4,G4))</f>
+        <f t="shared" si="2"/>
         <v>0.21198318149964962</v>
       </c>
     </row>
@@ -7277,21 +7262,21 @@
         <v>0</v>
       </c>
       <c r="D5" s="2">
-        <f>(ABS($B5-C5)/MAX($B5,C5))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E5">
         <v>16399</v>
       </c>
       <c r="F5" s="2">
-        <f>(ABS($B5-E5)/MAX($B5,E5))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G5">
         <v>11366</v>
       </c>
       <c r="H5" s="2">
-        <f>(ABS($B5-G5)/MAX($B5,G5))</f>
+        <f t="shared" si="2"/>
         <v>0.30690895786328437</v>
       </c>
     </row>
@@ -7303,21 +7288,21 @@
         <v>15809</v>
       </c>
       <c r="D6" s="2">
-        <f>(ABS($B6-C6)/MAX($B6,C6))</f>
+        <f t="shared" si="0"/>
         <v>0.21406910265970669</v>
       </c>
       <c r="E6">
         <v>16704</v>
       </c>
       <c r="F6" s="2">
-        <f>(ABS($B6-E6)/MAX($B6,E6))</f>
+        <f t="shared" si="1"/>
         <v>0.16957494407158838</v>
       </c>
       <c r="G6">
         <v>19925</v>
       </c>
       <c r="H6" s="2">
-        <f>(ABS($B6-G6)/MAX($B6,G6))</f>
+        <f t="shared" si="2"/>
         <v>9.4456872980362913E-3</v>
       </c>
     </row>
@@ -7329,21 +7314,21 @@
         <v>15817</v>
       </c>
       <c r="D7" s="2">
-        <f>(ABS($B7-C7)/MAX($B7,C7))</f>
+        <f t="shared" si="0"/>
         <v>0.18874698671590501</v>
       </c>
       <c r="E7">
         <v>18573</v>
       </c>
       <c r="F7" s="2">
-        <f>(ABS($B7-E7)/MAX($B7,E7))</f>
+        <f t="shared" si="1"/>
         <v>4.7391906447145714E-2</v>
       </c>
       <c r="G7">
         <v>18573</v>
       </c>
       <c r="H7" s="2">
-        <f>(ABS($B7-G7)/MAX($B7,G7))</f>
+        <f t="shared" si="2"/>
         <v>4.7391906447145714E-2</v>
       </c>
     </row>
@@ -7355,21 +7340,21 @@
         <v>14953</v>
       </c>
       <c r="D8" s="2">
-        <f>(ABS($B8-C8)/MAX($B8,C8))</f>
+        <f t="shared" si="0"/>
         <v>0.2085009527842473</v>
       </c>
       <c r="E8">
         <v>14953</v>
       </c>
       <c r="F8" s="2">
-        <f>(ABS($B8-E8)/MAX($B8,E8))</f>
+        <f t="shared" si="1"/>
         <v>0.2085009527842473</v>
       </c>
       <c r="G8">
         <v>14953</v>
       </c>
       <c r="H8" s="2">
-        <f>(ABS($B8-G8)/MAX($B8,G8))</f>
+        <f t="shared" si="2"/>
         <v>0.2085009527842473</v>
       </c>
     </row>
@@ -7381,21 +7366,21 @@
         <v>1884</v>
       </c>
       <c r="D9" s="2">
-        <f>(ABS($B9-C9)/MAX($B9,C9))</f>
+        <f t="shared" si="0"/>
         <v>0.42683297839975659</v>
       </c>
       <c r="E9">
         <v>1720</v>
       </c>
       <c r="F9" s="2">
-        <f>(ABS($B9-E9)/MAX($B9,E9))</f>
+        <f t="shared" si="1"/>
         <v>0.47672649832674169</v>
       </c>
       <c r="G9">
         <v>1906</v>
       </c>
       <c r="H9" s="2">
-        <f>(ABS($B9-G9)/MAX($B9,G9))</f>
+        <f t="shared" si="2"/>
         <v>0.42013994523881959</v>
       </c>
     </row>
@@ -7407,21 +7392,21 @@
         <v>2087</v>
       </c>
       <c r="D10" s="2">
-        <f>(ABS($B10-C10)/MAX($B10,C10))</f>
+        <f t="shared" si="0"/>
         <v>0.1885692068429238</v>
       </c>
       <c r="E10">
         <v>1764</v>
       </c>
       <c r="F10" s="2">
-        <f>(ABS($B10-E10)/MAX($B10,E10))</f>
+        <f t="shared" si="1"/>
         <v>0.3141524105754277</v>
       </c>
       <c r="G10">
         <v>1963</v>
       </c>
       <c r="H10" s="2">
-        <f>(ABS($B10-G10)/MAX($B10,G10))</f>
+        <f t="shared" si="2"/>
         <v>0.23678071539657855</v>
       </c>
     </row>
@@ -7433,21 +7418,21 @@
         <v>2086</v>
       </c>
       <c r="D11" s="2">
-        <f>(ABS($B11-C11)/MAX($B11,C11))</f>
+        <f t="shared" si="0"/>
         <v>0.1293823038397329</v>
       </c>
       <c r="E11">
         <v>2091</v>
       </c>
       <c r="F11" s="2">
-        <f>(ABS($B11-E11)/MAX($B11,E11))</f>
+        <f t="shared" si="1"/>
         <v>0.12729549248747912</v>
       </c>
       <c r="G11">
         <v>1981</v>
       </c>
       <c r="H11" s="2">
-        <f>(ABS($B11-G11)/MAX($B11,G11))</f>
+        <f t="shared" si="2"/>
         <v>0.17320534223706177</v>
       </c>
     </row>
@@ -7462,21 +7447,21 @@
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <f>(ABS($B12-C12)/MAX($B12,C12))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E12">
         <v>141686</v>
       </c>
       <c r="F12" s="2">
-        <f>(ABS($B12-E12)/MAX($B12,E12))</f>
+        <f t="shared" si="1"/>
         <v>9.2996587794372653E-3</v>
       </c>
       <c r="G12">
         <v>143016</v>
       </c>
       <c r="H12" s="2">
-        <f>(ABS($B12-G12)/MAX($B12,G12))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7488,21 +7473,21 @@
         <v>162987</v>
       </c>
       <c r="D13" s="2">
-        <f>(ABS($B13-C13)/MAX($B13,C13))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13">
         <v>162987</v>
       </c>
       <c r="F13" s="2">
-        <f>(ABS($B13-E13)/MAX($B13,E13))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G13">
         <v>162987</v>
       </c>
       <c r="H13" s="2">
-        <f>(ABS($B13-G13)/MAX($B13,G13))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7514,21 +7499,21 @@
         <v>157061</v>
       </c>
       <c r="D14" s="2">
-        <f>(ABS($B14-C14)/MAX($B14,C14))</f>
+        <f t="shared" si="0"/>
         <v>5.8801189948730929E-3</v>
       </c>
       <c r="E14">
         <v>157061</v>
       </c>
       <c r="F14" s="2">
-        <f>(ABS($B14-E14)/MAX($B14,E14))</f>
+        <f t="shared" si="1"/>
         <v>5.8801189948730929E-3</v>
       </c>
       <c r="G14">
         <v>157990</v>
       </c>
       <c r="H14" s="2">
-        <f>(ABS($B14-G14)/MAX($B14,G14))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7540,21 +7525,21 @@
         <v>176272</v>
       </c>
       <c r="D15" s="2">
-        <f>(ABS($B15-C15)/MAX($B15,C15))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15">
         <v>176272</v>
       </c>
       <c r="F15" s="2">
-        <f>(ABS($B15-E15)/MAX($B15,E15))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G15">
         <v>176272</v>
       </c>
       <c r="H15" s="2">
-        <f>(ABS($B15-G15)/MAX($B15,G15))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7566,21 +7551,21 @@
         <v>0</v>
       </c>
       <c r="D16" s="2">
-        <f>(ABS($B16-C16)/MAX($B16,C16))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E16">
         <v>62857</v>
       </c>
       <c r="F16" s="2">
-        <f>(ABS($B16-E16)/MAX($B16,E16))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G16">
         <v>62857</v>
       </c>
       <c r="H16" s="2">
-        <f>(ABS($B16-G16)/MAX($B16,G16))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7592,21 +7577,21 @@
         <v>61624</v>
       </c>
       <c r="D17" s="2">
-        <f>(ABS($B17-C17)/MAX($B17,C17))</f>
+        <f t="shared" si="0"/>
         <v>4.7365817462280482E-2</v>
       </c>
       <c r="E17">
         <v>61624</v>
       </c>
       <c r="F17" s="2">
-        <f>(ABS($B17-E17)/MAX($B17,E17))</f>
+        <f t="shared" si="1"/>
         <v>4.7365817462280482E-2</v>
       </c>
       <c r="G17">
         <v>63621</v>
       </c>
       <c r="H17" s="2">
-        <f>(ABS($B17-G17)/MAX($B17,G17))</f>
+        <f t="shared" si="2"/>
         <v>1.6494558496166212E-2</v>
       </c>
     </row>
@@ -7618,21 +7603,21 @@
         <v>52186</v>
       </c>
       <c r="D18" s="2">
-        <f>(ABS($B18-C18)/MAX($B18,C18))</f>
+        <f t="shared" si="0"/>
         <v>0.20466356778175723</v>
       </c>
       <c r="E18">
         <v>52186</v>
       </c>
       <c r="F18" s="2">
-        <f>(ABS($B18-E18)/MAX($B18,E18))</f>
+        <f t="shared" si="1"/>
         <v>0.20466356778175723</v>
       </c>
       <c r="G18">
         <v>65615</v>
       </c>
       <c r="H18" s="2">
-        <f>(ABS($B18-G18)/MAX($B18,G18))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7644,21 +7629,21 @@
         <v>50428</v>
       </c>
       <c r="D19" s="2">
-        <f>(ABS($B19-C19)/MAX($B19,C19))</f>
+        <f t="shared" si="0"/>
         <v>1.1196297966626797E-2</v>
       </c>
       <c r="E19">
         <v>50428</v>
       </c>
       <c r="F19" s="2">
-        <f>(ABS($B19-E19)/MAX($B19,E19))</f>
+        <f t="shared" si="1"/>
         <v>1.1196297966626797E-2</v>
       </c>
       <c r="G19">
         <v>50999</v>
       </c>
       <c r="H19" s="2">
-        <f>(ABS($B19-G19)/MAX($B19,G19))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7670,21 +7655,21 @@
         <v>59751</v>
       </c>
       <c r="D20" s="2">
-        <f>(ABS($B20-C20)/MAX($B20,C20))</f>
+        <f t="shared" si="0"/>
         <v>1.2820724635286732E-2</v>
       </c>
       <c r="E20">
         <v>59751</v>
       </c>
       <c r="F20" s="2">
-        <f>(ABS($B20-E20)/MAX($B20,E20))</f>
+        <f t="shared" si="1"/>
         <v>1.2820724635286732E-2</v>
       </c>
       <c r="G20">
         <v>59751</v>
       </c>
       <c r="H20" s="2">
-        <f>(ABS($B20-G20)/MAX($B20,G20))</f>
+        <f t="shared" si="2"/>
         <v>1.2820724635286732E-2</v>
       </c>
     </row>
@@ -7696,21 +7681,21 @@
         <v>60257</v>
       </c>
       <c r="D21" s="2">
-        <f>(ABS($B21-C21)/MAX($B21,C21))</f>
+        <f t="shared" si="0"/>
         <v>9.7778215999474137E-3</v>
       </c>
       <c r="E21">
         <v>60257</v>
       </c>
       <c r="F21" s="2">
-        <f>(ABS($B21-E21)/MAX($B21,E21))</f>
+        <f t="shared" si="1"/>
         <v>9.7778215999474137E-3</v>
       </c>
       <c r="G21">
         <v>60852</v>
       </c>
       <c r="H21" s="2">
-        <f>(ABS($B21-G21)/MAX($B21,G21))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7814,21 +7799,21 @@
         <v>9271</v>
       </c>
       <c r="D2" s="2">
-        <f>(ABS($B2-C2)/MAX($B2,C2))</f>
+        <f t="shared" ref="D2:D21" si="0">(ABS($B2-C2)/MAX($B2,C2))</f>
         <v>0.598710124226291</v>
       </c>
       <c r="E2">
         <v>13100</v>
       </c>
       <c r="F2" s="2">
-        <f>(ABS($B2-E2)/MAX($B2,E2))</f>
+        <f t="shared" ref="F2:F21" si="1">(ABS($B2-E2)/MAX($B2,E2))</f>
         <v>0.43297407263126003</v>
       </c>
       <c r="G2">
         <v>13965</v>
       </c>
       <c r="H2" s="2">
-        <f>(ABS($B2-G2)/MAX($B2,G2))</f>
+        <f t="shared" ref="H2:H21" si="2">(ABS($B2-G2)/MAX($B2,G2))</f>
         <v>0.39553304765614855</v>
       </c>
     </row>
@@ -7840,21 +7825,21 @@
         <v>12945</v>
       </c>
       <c r="D3" s="2">
-        <f>(ABS($B3-C3)/MAX($B3,C3))</f>
+        <f t="shared" si="0"/>
         <v>0.17141394098444601</v>
       </c>
       <c r="E3">
         <v>15623</v>
       </c>
       <c r="F3" s="2">
-        <f>(ABS($B3-E3)/MAX($B3,E3))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G3">
         <v>15382</v>
       </c>
       <c r="H3" s="2">
-        <f>(ABS($B3-G3)/MAX($B3,G3))</f>
+        <f t="shared" si="2"/>
         <v>1.5425974524739167E-2</v>
       </c>
     </row>
@@ -7866,21 +7851,21 @@
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f>(ABS($B4-C4)/MAX($B4,C4))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E4">
         <v>14032</v>
       </c>
       <c r="F4" s="2">
-        <f>(ABS($B4-E4)/MAX($B4,E4))</f>
+        <f t="shared" si="1"/>
         <v>0.18056528848399905</v>
       </c>
       <c r="G4">
         <v>17124</v>
       </c>
       <c r="H4" s="2">
-        <f>(ABS($B4-G4)/MAX($B4,G4))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7892,21 +7877,21 @@
         <v>16032</v>
       </c>
       <c r="D5" s="2">
-        <f>(ABS($B5-C5)/MAX($B5,C5))</f>
+        <f t="shared" si="0"/>
         <v>2.2379413378864565E-2</v>
       </c>
       <c r="E5">
         <v>16399</v>
       </c>
       <c r="F5" s="2">
-        <f>(ABS($B5-E5)/MAX($B5,E5))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G5">
         <v>16399</v>
       </c>
       <c r="H5" s="2">
-        <f>(ABS($B5-G5)/MAX($B5,G5))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7918,21 +7903,21 @@
         <v>13990</v>
       </c>
       <c r="D6" s="2">
-        <f>(ABS($B6-C6)/MAX($B6,C6))</f>
+        <f t="shared" si="0"/>
         <v>0.30449913000248569</v>
       </c>
       <c r="E6">
         <v>16623</v>
       </c>
       <c r="F6" s="2">
-        <f>(ABS($B6-E6)/MAX($B6,E6))</f>
+        <f t="shared" si="1"/>
         <v>0.17360178970917226</v>
       </c>
       <c r="G6">
         <v>17895</v>
       </c>
       <c r="H6" s="2">
-        <f>(ABS($B6-G6)/MAX($B6,G6))</f>
+        <f t="shared" si="2"/>
         <v>0.11036539895600299</v>
       </c>
     </row>
@@ -7944,21 +7929,21 @@
         <v>16860</v>
       </c>
       <c r="D7" s="2">
-        <f>(ABS($B7-C7)/MAX($B7,C7))</f>
+        <f t="shared" si="0"/>
         <v>0.13525157716571781</v>
       </c>
       <c r="E7">
         <v>15817</v>
       </c>
       <c r="F7" s="2">
-        <f>(ABS($B7-E7)/MAX($B7,E7))</f>
+        <f t="shared" si="1"/>
         <v>0.18874698671590501</v>
       </c>
       <c r="G7">
         <v>18573</v>
       </c>
       <c r="H7" s="2">
-        <f>(ABS($B7-G7)/MAX($B7,G7))</f>
+        <f t="shared" si="2"/>
         <v>4.7391906447145714E-2</v>
       </c>
     </row>
@@ -7970,21 +7955,21 @@
         <v>0</v>
       </c>
       <c r="D8" s="2">
-        <f>(ABS($B8-C8)/MAX($B8,C8))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E8">
         <v>14953</v>
       </c>
       <c r="F8" s="2">
-        <f>(ABS($B8-E8)/MAX($B8,E8))</f>
+        <f t="shared" si="1"/>
         <v>0.2085009527842473</v>
       </c>
       <c r="G8">
         <v>16337</v>
       </c>
       <c r="H8" s="2">
-        <f>(ABS($B8-G8)/MAX($B8,G8))</f>
+        <f t="shared" si="2"/>
         <v>0.13524243065847977</v>
       </c>
     </row>
@@ -7996,21 +7981,21 @@
         <v>0</v>
       </c>
       <c r="D9" s="2">
-        <f>(ABS($B9-C9)/MAX($B9,C9))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E9">
         <v>2118</v>
       </c>
       <c r="F9" s="2">
-        <f>(ABS($B9-E9)/MAX($B9,E9))</f>
+        <f t="shared" si="1"/>
         <v>0.35564344386979008</v>
       </c>
       <c r="G9">
         <v>3287</v>
       </c>
       <c r="H9" s="2">
-        <f>(ABS($B9-G9)/MAX($B9,G9))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8022,21 +8007,21 @@
         <v>0</v>
       </c>
       <c r="D10" s="2">
-        <f>(ABS($B10-C10)/MAX($B10,C10))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E10">
         <v>1909</v>
       </c>
       <c r="F10" s="2">
-        <f>(ABS($B10-E10)/MAX($B10,E10))</f>
+        <f t="shared" si="1"/>
         <v>0.25777604976671853</v>
       </c>
       <c r="G10">
         <v>1888</v>
       </c>
       <c r="H10" s="2">
-        <f>(ABS($B10-G10)/MAX($B10,G10))</f>
+        <f t="shared" si="2"/>
         <v>0.26594090202177295</v>
       </c>
     </row>
@@ -8048,21 +8033,21 @@
         <v>2061</v>
       </c>
       <c r="D11" s="2">
-        <f>(ABS($B11-C11)/MAX($B11,C11))</f>
+        <f t="shared" si="0"/>
         <v>0.13981636060100167</v>
       </c>
       <c r="E11">
         <v>2109</v>
       </c>
       <c r="F11" s="2">
-        <f>(ABS($B11-E11)/MAX($B11,E11))</f>
+        <f t="shared" si="1"/>
         <v>0.1197829716193656</v>
       </c>
       <c r="G11">
         <v>2204</v>
       </c>
       <c r="H11" s="2">
-        <f>(ABS($B11-G11)/MAX($B11,G11))</f>
+        <f t="shared" si="2"/>
         <v>8.0133555926544239E-2</v>
       </c>
     </row>
@@ -8077,21 +8062,21 @@
         <v>140362</v>
       </c>
       <c r="D12" s="2">
-        <f>(ABS($B12-C12)/MAX($B12,C12))</f>
+        <f t="shared" si="0"/>
         <v>1.8557364210997372E-2</v>
       </c>
       <c r="E12">
         <v>143016</v>
       </c>
       <c r="F12" s="2">
-        <f>(ABS($B12-E12)/MAX($B12,E12))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G12">
         <v>142395</v>
       </c>
       <c r="H12" s="2">
-        <f>(ABS($B12-G12)/MAX($B12,G12))</f>
+        <f t="shared" si="2"/>
         <v>4.3421715052861217E-3</v>
       </c>
     </row>
@@ -8103,21 +8088,21 @@
         <v>0</v>
       </c>
       <c r="D13" s="2">
-        <f>(ABS($B13-C13)/MAX($B13,C13))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E13">
         <v>162987</v>
       </c>
       <c r="F13" s="2">
-        <f>(ABS($B13-E13)/MAX($B13,E13))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G13">
         <v>162987</v>
       </c>
       <c r="H13" s="2">
-        <f>(ABS($B13-G13)/MAX($B13,G13))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8129,21 +8114,21 @@
         <v>157990</v>
       </c>
       <c r="D14" s="2">
-        <f>(ABS($B14-C14)/MAX($B14,C14))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14">
         <v>157990</v>
       </c>
       <c r="F14" s="2">
-        <f>(ABS($B14-E14)/MAX($B14,E14))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G14">
         <v>157990</v>
       </c>
       <c r="H14" s="2">
-        <f>(ABS($B14-G14)/MAX($B14,G14))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8155,21 +8140,21 @@
         <v>174424</v>
       </c>
       <c r="D15" s="2">
-        <f>(ABS($B15-C15)/MAX($B15,C15))</f>
+        <f t="shared" si="0"/>
         <v>1.0483797767087228E-2</v>
       </c>
       <c r="E15">
         <v>176272</v>
       </c>
       <c r="F15" s="2">
-        <f>(ABS($B15-E15)/MAX($B15,E15))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G15">
         <v>176272</v>
       </c>
       <c r="H15" s="2">
-        <f>(ABS($B15-G15)/MAX($B15,G15))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8181,21 +8166,21 @@
         <v>62534</v>
       </c>
       <c r="D16" s="2">
-        <f>(ABS($B16-C16)/MAX($B16,C16))</f>
+        <f t="shared" si="0"/>
         <v>5.1386480423819148E-3</v>
       </c>
       <c r="E16">
         <v>61246</v>
       </c>
       <c r="F16" s="2">
-        <f>(ABS($B16-E16)/MAX($B16,E16))</f>
+        <f t="shared" si="1"/>
         <v>2.5629603703644782E-2</v>
       </c>
       <c r="G16">
         <v>62857</v>
       </c>
       <c r="H16" s="2">
-        <f>(ABS($B16-G16)/MAX($B16,G16))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8207,21 +8192,21 @@
         <v>58444</v>
       </c>
       <c r="D17" s="2">
-        <f>(ABS($B17-C17)/MAX($B17,C17))</f>
+        <f t="shared" si="0"/>
         <v>9.6524857778877066E-2</v>
       </c>
       <c r="E17">
         <v>64164</v>
       </c>
       <c r="F17" s="2">
-        <f>(ABS($B17-E17)/MAX($B17,E17))</f>
+        <f t="shared" si="1"/>
         <v>8.1004204798417016E-3</v>
       </c>
       <c r="G17">
         <v>64688</v>
       </c>
       <c r="H17" s="2">
-        <f>(ABS($B17-G17)/MAX($B17,G17))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8233,21 +8218,21 @@
         <v>59074</v>
       </c>
       <c r="D18" s="2">
-        <f>(ABS($B18-C18)/MAX($B18,C18))</f>
+        <f t="shared" si="0"/>
         <v>9.9687571439457445E-2</v>
       </c>
       <c r="E18">
         <v>65615</v>
       </c>
       <c r="F18" s="2">
-        <f>(ABS($B18-E18)/MAX($B18,E18))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G18">
         <v>65615</v>
       </c>
       <c r="H18" s="2">
-        <f>(ABS($B18-G18)/MAX($B18,G18))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8259,21 +8244,21 @@
         <v>46619</v>
       </c>
       <c r="D19" s="2">
-        <f>(ABS($B19-C19)/MAX($B19,C19))</f>
+        <f t="shared" si="0"/>
         <v>8.5884036941900818E-2</v>
       </c>
       <c r="E19">
         <v>40165</v>
       </c>
       <c r="F19" s="2">
-        <f>(ABS($B19-E19)/MAX($B19,E19))</f>
+        <f t="shared" si="1"/>
         <v>0.21243553795172454</v>
       </c>
       <c r="G19">
         <v>50999</v>
       </c>
       <c r="H19" s="2">
-        <f>(ABS($B19-G19)/MAX($B19,G19))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8285,21 +8270,21 @@
         <v>54584</v>
       </c>
       <c r="D20" s="2">
-        <f>(ABS($B20-C20)/MAX($B20,C20))</f>
+        <f t="shared" si="0"/>
         <v>9.8187585705552888E-2</v>
       </c>
       <c r="E20">
         <v>60527</v>
       </c>
       <c r="F20" s="2">
-        <f>(ABS($B20-E20)/MAX($B20,E20))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G20">
         <v>60527</v>
       </c>
       <c r="H20" s="2">
-        <f>(ABS($B20-G20)/MAX($B20,G20))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8311,21 +8296,21 @@
         <v>0</v>
       </c>
       <c r="D21" s="2">
-        <f>(ABS($B21-C21)/MAX($B21,C21))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E21">
         <v>60852</v>
       </c>
       <c r="F21" s="2">
-        <f>(ABS($B21-E21)/MAX($B21,E21))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G21">
         <v>60852</v>
       </c>
       <c r="H21" s="2">
-        <f>(ABS($B21-G21)/MAX($B21,G21))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8424,14 +8409,14 @@
         <v>13965</v>
       </c>
       <c r="D2" s="2">
-        <f>(ABS($B2-C2)/MAX($B2,C2))</f>
+        <f t="shared" ref="D2:D21" si="0">(ABS($B2-C2)/MAX($B2,C2))</f>
         <v>0.39553304765614855</v>
       </c>
       <c r="E2">
         <v>16665</v>
       </c>
       <c r="F2" s="2">
-        <f>(ABS($B2-E2)/MAX($B2,E2))</f>
+        <f t="shared" ref="F2:F21" si="1">(ABS($B2-E2)/MAX($B2,E2))</f>
         <v>0.27866510842747694</v>
       </c>
       <c r="H2" s="2"/>
@@ -8444,14 +8429,14 @@
         <v>15382</v>
       </c>
       <c r="D3" s="2">
-        <f>(ABS($B3-C3)/MAX($B3,C3))</f>
+        <f t="shared" si="0"/>
         <v>1.5425974524739167E-2</v>
       </c>
       <c r="E3">
         <v>14625</v>
       </c>
       <c r="F3" s="2">
-        <f>(ABS($B3-E3)/MAX($B3,E3))</f>
+        <f t="shared" si="1"/>
         <v>6.3880176662612809E-2</v>
       </c>
       <c r="H3" s="2"/>
@@ -8464,14 +8449,14 @@
         <v>17124</v>
       </c>
       <c r="D4" s="2">
-        <f>(ABS($B4-C4)/MAX($B4,C4))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4">
         <v>7911</v>
       </c>
       <c r="F4" s="2">
-        <f>(ABS($B4-E4)/MAX($B4,E4))</f>
+        <f t="shared" si="1"/>
         <v>0.53801681850035044</v>
       </c>
       <c r="H4" s="2"/>
@@ -8484,14 +8469,14 @@
         <v>16399</v>
       </c>
       <c r="D5" s="2">
-        <f>(ABS($B5-C5)/MAX($B5,C5))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5">
         <v>16032</v>
       </c>
       <c r="F5" s="2">
-        <f>(ABS($B5-E5)/MAX($B5,E5))</f>
+        <f t="shared" si="1"/>
         <v>2.2379413378864565E-2</v>
       </c>
       <c r="H5" s="2"/>
@@ -8504,14 +8489,14 @@
         <v>17895</v>
       </c>
       <c r="D6" s="2">
-        <f>(ABS($B6-C6)/MAX($B6,C6))</f>
+        <f t="shared" si="0"/>
         <v>0.11036539895600299</v>
       </c>
       <c r="E6">
         <v>15628</v>
       </c>
       <c r="F6" s="2">
-        <f>(ABS($B6-E6)/MAX($B6,E6))</f>
+        <f t="shared" si="1"/>
         <v>0.22306736266467811</v>
       </c>
       <c r="H6" s="2"/>
@@ -8524,14 +8509,14 @@
         <v>18573</v>
       </c>
       <c r="D7" s="2">
-        <f>(ABS($B7-C7)/MAX($B7,C7))</f>
+        <f t="shared" si="0"/>
         <v>4.7391906447145714E-2</v>
       </c>
       <c r="E7">
         <v>11424</v>
       </c>
       <c r="F7" s="2">
-        <f>(ABS($B7-E7)/MAX($B7,E7))</f>
+        <f t="shared" si="1"/>
         <v>0.41406370210801663</v>
       </c>
       <c r="H7" s="2"/>
@@ -8544,14 +8529,14 @@
         <v>16337</v>
       </c>
       <c r="D8" s="2">
-        <f>(ABS($B8-C8)/MAX($B8,C8))</f>
+        <f t="shared" si="0"/>
         <v>0.13524243065847977</v>
       </c>
       <c r="E8">
         <v>13926</v>
       </c>
       <c r="F8" s="2">
-        <f>(ABS($B8-E8)/MAX($B8,E8))</f>
+        <f t="shared" si="1"/>
         <v>0.262862587338556</v>
       </c>
       <c r="H8" s="2"/>
@@ -8564,14 +8549,14 @@
         <v>3287</v>
       </c>
       <c r="D9" s="2">
-        <f>(ABS($B9-C9)/MAX($B9,C9))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9">
         <v>3287</v>
       </c>
       <c r="F9" s="2">
-        <f>(ABS($B9-E9)/MAX($B9,E9))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H9" s="2"/>
@@ -8584,14 +8569,14 @@
         <v>1888</v>
       </c>
       <c r="D10" s="2">
-        <f>(ABS($B10-C10)/MAX($B10,C10))</f>
+        <f t="shared" si="0"/>
         <v>0.26594090202177295</v>
       </c>
       <c r="E10">
         <v>2087</v>
       </c>
       <c r="F10" s="2">
-        <f>(ABS($B10-E10)/MAX($B10,E10))</f>
+        <f t="shared" si="1"/>
         <v>0.1885692068429238</v>
       </c>
       <c r="H10" s="2"/>
@@ -8604,14 +8589,14 @@
         <v>2204</v>
       </c>
       <c r="D11" s="2">
-        <f>(ABS($B11-C11)/MAX($B11,C11))</f>
+        <f t="shared" si="0"/>
         <v>8.0133555926544239E-2</v>
       </c>
       <c r="E11">
         <v>2086</v>
       </c>
       <c r="F11" s="2">
-        <f>(ABS($B11-E11)/MAX($B11,E11))</f>
+        <f t="shared" si="1"/>
         <v>0.1293823038397329</v>
       </c>
       <c r="H11" s="2"/>
@@ -8627,14 +8612,14 @@
         <v>142395</v>
       </c>
       <c r="D12" s="2">
-        <f>(ABS($B12-C12)/MAX($B12,C12))</f>
+        <f t="shared" si="0"/>
         <v>4.3421715052861217E-3</v>
       </c>
       <c r="E12">
         <v>142307</v>
       </c>
       <c r="F12" s="2">
-        <f>(ABS($B12-E12)/MAX($B12,E12))</f>
+        <f t="shared" si="1"/>
         <v>4.9574872741511436E-3</v>
       </c>
       <c r="H12" s="2"/>
@@ -8647,14 +8632,14 @@
         <v>162987</v>
       </c>
       <c r="D13" s="2">
-        <f>(ABS($B13-C13)/MAX($B13,C13))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13">
         <v>146509</v>
       </c>
       <c r="F13" s="2">
-        <f>(ABS($B13-E13)/MAX($B13,E13))</f>
+        <f t="shared" si="1"/>
         <v>0.10110008773705878</v>
       </c>
       <c r="H13" s="2"/>
@@ -8667,14 +8652,14 @@
         <v>157990</v>
       </c>
       <c r="D14" s="2">
-        <f>(ABS($B14-C14)/MAX($B14,C14))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14">
         <v>157990</v>
       </c>
       <c r="F14" s="2">
-        <f>(ABS($B14-E14)/MAX($B14,E14))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H14" s="2"/>
@@ -8687,14 +8672,14 @@
         <v>176272</v>
       </c>
       <c r="D15" s="2">
-        <f>(ABS($B15-C15)/MAX($B15,C15))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15">
         <v>176272</v>
       </c>
       <c r="F15" s="2">
-        <f>(ABS($B15-E15)/MAX($B15,E15))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H15" s="2"/>
@@ -8707,14 +8692,14 @@
         <v>62857</v>
       </c>
       <c r="D16" s="2">
-        <f>(ABS($B16-C16)/MAX($B16,C16))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16">
         <v>62857</v>
       </c>
       <c r="F16" s="2">
-        <f>(ABS($B16-E16)/MAX($B16,E16))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H16" s="2"/>
@@ -8727,14 +8712,14 @@
         <v>64688</v>
       </c>
       <c r="D17" s="2">
-        <f>(ABS($B17-C17)/MAX($B17,C17))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17">
         <v>62133</v>
       </c>
       <c r="F17" s="2">
-        <f>(ABS($B17-E17)/MAX($B17,E17))</f>
+        <f t="shared" si="1"/>
         <v>3.9497279248083106E-2</v>
       </c>
       <c r="H17" s="2"/>
@@ -8747,14 +8732,14 @@
         <v>65615</v>
       </c>
       <c r="D18" s="2">
-        <f>(ABS($B18-C18)/MAX($B18,C18))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18">
         <v>65615</v>
       </c>
       <c r="F18" s="2">
-        <f>(ABS($B18-E18)/MAX($B18,E18))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H18" s="2"/>
@@ -8767,14 +8752,14 @@
         <v>50999</v>
       </c>
       <c r="D19" s="2">
-        <f>(ABS($B19-C19)/MAX($B19,C19))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19">
         <v>50782</v>
       </c>
       <c r="F19" s="2">
-        <f>(ABS($B19-E19)/MAX($B19,E19))</f>
+        <f t="shared" si="1"/>
         <v>4.2549853918704287E-3</v>
       </c>
       <c r="H19" s="2"/>
@@ -8787,14 +8772,14 @@
         <v>59751</v>
       </c>
       <c r="D20" s="2">
-        <f>(ABS($B20-C20)/MAX($B20,C20))</f>
+        <f t="shared" si="0"/>
         <v>1.2820724635286732E-2</v>
       </c>
       <c r="E20">
         <v>58476</v>
       </c>
       <c r="F20" s="2">
-        <f>(ABS($B20-E20)/MAX($B20,E20))</f>
+        <f t="shared" si="1"/>
         <v>3.3885703900738515E-2</v>
       </c>
       <c r="H20" s="2"/>
@@ -8807,14 +8792,14 @@
         <v>60852</v>
       </c>
       <c r="D21" s="2">
-        <f>(ABS($B21-C21)/MAX($B21,C21))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E21">
         <v>60480</v>
       </c>
       <c r="F21" s="2">
-        <f>(ABS($B21-E21)/MAX($B21,E21))</f>
+        <f t="shared" si="1"/>
         <v>6.1131926641688032E-3</v>
       </c>
       <c r="H21" s="2"/>
@@ -8922,63 +8907,63 @@
         <v>13695</v>
       </c>
       <c r="D2" s="2">
-        <f>(ABS($B2-C2)/MAX($B2,C2))</f>
+        <f t="shared" ref="D2:D21" si="0">(ABS($B2-C2)/MAX($B2,C2))</f>
         <v>0.4072198415790157</v>
       </c>
       <c r="E2">
         <v>16587</v>
       </c>
       <c r="F2" s="2">
-        <f>(ABS($B2-E2)/MAX($B2,E2))</f>
+        <f t="shared" ref="F2:F21" si="1">(ABS($B2-E2)/MAX($B2,E2))</f>
         <v>0.28204129333852745</v>
       </c>
       <c r="G2">
         <v>18525</v>
       </c>
       <c r="H2" s="2">
-        <f>(ABS($B2-G2)/MAX($B2,G2))</f>
+        <f t="shared" ref="H2:H21" si="2">(ABS($B2-G2)/MAX($B2,G2))</f>
         <v>0.19815608362550319</v>
       </c>
       <c r="I2">
         <v>14980</v>
       </c>
       <c r="J2" s="2">
-        <f>(ABS($B2-I2)/MAX($B2,I2))</f>
+        <f t="shared" ref="J2:J21" si="3">(ABS($B2-I2)/MAX($B2,I2))</f>
         <v>0.35159935939055537</v>
       </c>
       <c r="K2">
         <v>13192</v>
       </c>
       <c r="L2" s="2">
-        <f>(ABS($B2-K2)/MAX($B2,K2))</f>
+        <f t="shared" ref="L2:L21" si="4">(ABS($B2-K2)/MAX($B2,K2))</f>
         <v>0.42899190581309787</v>
       </c>
       <c r="M2">
         <v>15227</v>
       </c>
       <c r="N2" s="2">
-        <f>(ABS($B2-M2)/MAX($B2,M2))</f>
+        <f t="shared" ref="N2:N21" si="5">(ABS($B2-M2)/MAX($B2,M2))</f>
         <v>0.34090810717222869</v>
       </c>
       <c r="O2">
         <v>14507</v>
       </c>
       <c r="P2" s="2">
-        <f>(ABS($B2-O2)/MAX($B2,O2))</f>
+        <f t="shared" ref="P2:P21" si="6">(ABS($B2-O2)/MAX($B2,O2))</f>
         <v>0.37207289096654111</v>
       </c>
       <c r="Q2">
         <v>13577</v>
       </c>
       <c r="R2" s="2">
-        <f>(ABS($B2-Q2)/MAX($B2,Q2))</f>
+        <f t="shared" ref="R2:R21" si="7">(ABS($B2-Q2)/MAX($B2,Q2))</f>
         <v>0.41232740336752804</v>
       </c>
       <c r="S2">
         <v>15593</v>
       </c>
       <c r="T2" s="2">
-        <f>(ABS($B2-S2)/MAX($B2,S2))</f>
+        <f t="shared" ref="T2:T21" si="8">(ABS($B2-S2)/MAX($B2,S2))</f>
         <v>0.32506600874345321</v>
       </c>
     </row>
@@ -8990,63 +8975,63 @@
         <v>13423</v>
       </c>
       <c r="D3" s="2">
-        <f>(ABS($B3-C3)/MAX($B3,C3))</f>
+        <f t="shared" si="0"/>
         <v>0.14081802470716251</v>
       </c>
       <c r="E3">
         <v>13789</v>
       </c>
       <c r="F3" s="2">
-        <f>(ABS($B3-E3)/MAX($B3,E3))</f>
+        <f t="shared" si="1"/>
         <v>0.11739102605133457</v>
       </c>
       <c r="G3">
         <v>14742</v>
       </c>
       <c r="H3" s="2">
-        <f>(ABS($B3-G3)/MAX($B3,G3))</f>
+        <f t="shared" si="2"/>
         <v>5.639121807591372E-2</v>
       </c>
       <c r="I3">
         <v>14742</v>
       </c>
       <c r="J3" s="2">
-        <f>(ABS($B3-I3)/MAX($B3,I3))</f>
+        <f t="shared" si="3"/>
         <v>5.639121807591372E-2</v>
       </c>
       <c r="K3">
         <v>14742</v>
       </c>
       <c r="L3" s="2">
-        <f>(ABS($B3-K3)/MAX($B3,K3))</f>
+        <f t="shared" si="4"/>
         <v>5.639121807591372E-2</v>
       </c>
       <c r="M3">
         <v>15382</v>
       </c>
       <c r="N3" s="2">
-        <f>(ABS($B3-M3)/MAX($B3,M3))</f>
+        <f t="shared" si="5"/>
         <v>1.5425974524739167E-2</v>
       </c>
       <c r="O3">
         <v>14988</v>
       </c>
       <c r="P3" s="2">
-        <f>(ABS($B3-O3)/MAX($B3,O3))</f>
+        <f t="shared" si="6"/>
         <v>4.0645202585930996E-2</v>
       </c>
       <c r="Q3">
         <v>14742</v>
       </c>
       <c r="R3" s="2">
-        <f>(ABS($B3-Q3)/MAX($B3,Q3))</f>
+        <f t="shared" si="7"/>
         <v>5.639121807591372E-2</v>
       </c>
       <c r="S3">
         <v>15382</v>
       </c>
       <c r="T3" s="2">
-        <f>(ABS($B3-S3)/MAX($B3,S3))</f>
+        <f t="shared" si="8"/>
         <v>1.5425974524739167E-2</v>
       </c>
     </row>
@@ -9058,63 +9043,63 @@
         <v>15850</v>
       </c>
       <c r="D4" s="2">
-        <f>(ABS($B4-C4)/MAX($B4,C4))</f>
+        <f t="shared" si="0"/>
         <v>7.4398505022191072E-2</v>
       </c>
       <c r="E4">
         <v>13629</v>
       </c>
       <c r="F4" s="2">
-        <f>(ABS($B4-E4)/MAX($B4,E4))</f>
+        <f t="shared" si="1"/>
         <v>0.20409950946040645</v>
       </c>
       <c r="G4">
         <v>17124</v>
       </c>
       <c r="H4" s="2">
-        <f>(ABS($B4-G4)/MAX($B4,G4))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I4">
         <v>13629</v>
       </c>
       <c r="J4" s="2">
-        <f>(ABS($B4-I4)/MAX($B4,I4))</f>
+        <f t="shared" si="3"/>
         <v>0.20409950946040645</v>
       </c>
       <c r="K4">
         <v>13494</v>
       </c>
       <c r="L4" s="2">
-        <f>(ABS($B4-K4)/MAX($B4,K4))</f>
+        <f t="shared" si="4"/>
         <v>0.21198318149964962</v>
       </c>
       <c r="M4">
         <v>12748</v>
       </c>
       <c r="N4" s="2">
-        <f>(ABS($B4-M4)/MAX($B4,M4))</f>
+        <f t="shared" si="5"/>
         <v>0.25554776921280076</v>
       </c>
       <c r="O4">
         <v>15567</v>
       </c>
       <c r="P4" s="2">
-        <f>(ABS($B4-O4)/MAX($B4,O4))</f>
+        <f t="shared" si="6"/>
         <v>9.0925017519271192E-2</v>
       </c>
       <c r="Q4">
         <v>13643</v>
       </c>
       <c r="R4" s="2">
-        <f>(ABS($B4-Q4)/MAX($B4,Q4))</f>
+        <f t="shared" si="7"/>
         <v>0.20328194347115161</v>
       </c>
       <c r="S4">
         <v>13647</v>
       </c>
       <c r="T4" s="2">
-        <f>(ABS($B4-S4)/MAX($B4,S4))</f>
+        <f t="shared" si="8"/>
         <v>0.20304835318850736</v>
       </c>
     </row>
@@ -9126,63 +9111,63 @@
         <v>16399</v>
       </c>
       <c r="D5" s="2">
-        <f>(ABS($B5-C5)/MAX($B5,C5))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5">
         <v>16399</v>
       </c>
       <c r="F5" s="2">
-        <f>(ABS($B5-E5)/MAX($B5,E5))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G5">
         <v>16399</v>
       </c>
       <c r="H5" s="2">
-        <f>(ABS($B5-G5)/MAX($B5,G5))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5">
         <v>16399</v>
       </c>
       <c r="J5" s="2">
-        <f>(ABS($B5-I5)/MAX($B5,I5))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K5">
         <v>16399</v>
       </c>
       <c r="L5" s="2">
-        <f>(ABS($B5-K5)/MAX($B5,K5))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M5">
         <v>16399</v>
       </c>
       <c r="N5" s="2">
-        <f>(ABS($B5-M5)/MAX($B5,M5))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O5">
         <v>16399</v>
       </c>
       <c r="P5" s="2">
-        <f>(ABS($B5-O5)/MAX($B5,O5))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q5">
         <v>16399</v>
       </c>
       <c r="R5" s="2">
-        <f>(ABS($B5-Q5)/MAX($B5,Q5))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S5">
         <v>16032</v>
       </c>
       <c r="T5" s="2">
-        <f>(ABS($B5-S5)/MAX($B5,S5))</f>
+        <f t="shared" si="8"/>
         <v>2.2379413378864565E-2</v>
       </c>
     </row>
@@ -9194,63 +9179,63 @@
         <v>15809</v>
       </c>
       <c r="D6" s="2">
-        <f>(ABS($B6-C6)/MAX($B6,C6))</f>
+        <f t="shared" si="0"/>
         <v>0.21406910265970669</v>
       </c>
       <c r="E6">
         <v>15584</v>
       </c>
       <c r="F6" s="2">
-        <f>(ABS($B6-E6)/MAX($B6,E6))</f>
+        <f t="shared" si="1"/>
         <v>0.22525478498632862</v>
       </c>
       <c r="G6">
         <v>13849</v>
       </c>
       <c r="H6" s="2">
-        <f>(ABS($B6-G6)/MAX($B6,G6))</f>
+        <f t="shared" si="2"/>
         <v>0.31150882426050214</v>
       </c>
       <c r="I6">
         <v>15584</v>
       </c>
       <c r="J6" s="2">
-        <f>(ABS($B6-I6)/MAX($B6,I6))</f>
+        <f t="shared" si="3"/>
         <v>0.22525478498632862</v>
       </c>
       <c r="K6">
         <v>15809</v>
       </c>
       <c r="L6" s="2">
-        <f>(ABS($B6-K6)/MAX($B6,K6))</f>
+        <f t="shared" si="4"/>
         <v>0.21406910265970669</v>
       </c>
       <c r="M6">
         <v>17895</v>
       </c>
       <c r="N6" s="2">
-        <f>(ABS($B6-M6)/MAX($B6,M6))</f>
+        <f t="shared" si="5"/>
         <v>0.11036539895600299</v>
       </c>
       <c r="O6">
         <v>18715</v>
       </c>
       <c r="P6" s="2">
-        <f>(ABS($B6-O6)/MAX($B6,O6))</f>
+        <f t="shared" si="6"/>
         <v>6.9599801143425302E-2</v>
       </c>
       <c r="Q6">
         <v>17895</v>
       </c>
       <c r="R6" s="2">
-        <f>(ABS($B6-Q6)/MAX($B6,Q6))</f>
+        <f t="shared" si="7"/>
         <v>0.11036539895600299</v>
       </c>
       <c r="S6">
         <v>16706</v>
       </c>
       <c r="T6" s="2">
-        <f>(ABS($B6-S6)/MAX($B6,S6))</f>
+        <f t="shared" si="8"/>
         <v>0.16947551578424061</v>
       </c>
     </row>
@@ -9262,63 +9247,63 @@
         <v>13049</v>
       </c>
       <c r="D7" s="2">
-        <f>(ABS($B7-C7)/MAX($B7,C7))</f>
+        <f t="shared" si="0"/>
         <v>0.33071754628917271</v>
       </c>
       <c r="E7">
         <v>18573</v>
       </c>
       <c r="F7" s="2">
-        <f>(ABS($B7-E7)/MAX($B7,E7))</f>
+        <f t="shared" si="1"/>
         <v>4.7391906447145714E-2</v>
       </c>
       <c r="G7">
         <v>15817</v>
       </c>
       <c r="H7" s="2">
-        <f>(ABS($B7-G7)/MAX($B7,G7))</f>
+        <f t="shared" si="2"/>
         <v>0.18874698671590501</v>
       </c>
       <c r="I7">
         <v>15817</v>
       </c>
       <c r="J7" s="2">
-        <f>(ABS($B7-I7)/MAX($B7,I7))</f>
+        <f t="shared" si="3"/>
         <v>0.18874698671590501</v>
       </c>
       <c r="K7">
         <v>16860</v>
       </c>
       <c r="L7" s="2">
-        <f>(ABS($B7-K7)/MAX($B7,K7))</f>
+        <f t="shared" si="4"/>
         <v>0.13525157716571781</v>
       </c>
       <c r="M7">
         <v>15817</v>
       </c>
       <c r="N7" s="2">
-        <f>(ABS($B7-M7)/MAX($B7,M7))</f>
+        <f t="shared" si="5"/>
         <v>0.18874698671590501</v>
       </c>
       <c r="O7">
         <v>15817</v>
       </c>
       <c r="P7" s="2">
-        <f>(ABS($B7-O7)/MAX($B7,O7))</f>
+        <f t="shared" si="6"/>
         <v>0.18874698671590501</v>
       </c>
       <c r="Q7">
         <v>18573</v>
       </c>
       <c r="R7" s="2">
-        <f>(ABS($B7-Q7)/MAX($B7,Q7))</f>
+        <f t="shared" si="7"/>
         <v>4.7391906447145714E-2</v>
       </c>
       <c r="S7">
         <v>15817</v>
       </c>
       <c r="T7" s="2">
-        <f>(ABS($B7-S7)/MAX($B7,S7))</f>
+        <f t="shared" si="8"/>
         <v>0.18874698671590501</v>
       </c>
     </row>
@@ -9330,63 +9315,63 @@
         <v>14954</v>
       </c>
       <c r="D8" s="2">
-        <f>(ABS($B8-C8)/MAX($B8,C8))</f>
+        <f t="shared" si="0"/>
         <v>0.20844802032606394</v>
       </c>
       <c r="E8">
         <v>18605</v>
       </c>
       <c r="F8" s="2">
-        <f>(ABS($B8-E8)/MAX($B8,E8))</f>
+        <f t="shared" si="1"/>
         <v>1.5191615498623755E-2</v>
       </c>
       <c r="G8">
         <v>14953</v>
       </c>
       <c r="H8" s="2">
-        <f>(ABS($B8-G8)/MAX($B8,G8))</f>
+        <f t="shared" si="2"/>
         <v>0.2085009527842473</v>
       </c>
       <c r="I8">
         <v>14603</v>
       </c>
       <c r="J8" s="2">
-        <f>(ABS($B8-I8)/MAX($B8,I8))</f>
+        <f t="shared" si="3"/>
         <v>0.22702731314842262</v>
       </c>
       <c r="K8">
         <v>14953</v>
       </c>
       <c r="L8" s="2">
-        <f>(ABS($B8-K8)/MAX($B8,K8))</f>
+        <f t="shared" si="4"/>
         <v>0.2085009527842473</v>
       </c>
       <c r="M8">
         <v>16337</v>
       </c>
       <c r="N8" s="2">
-        <f>(ABS($B8-M8)/MAX($B8,M8))</f>
+        <f t="shared" si="5"/>
         <v>0.13524243065847977</v>
       </c>
       <c r="O8">
         <v>16337</v>
       </c>
       <c r="P8" s="2">
-        <f>(ABS($B8-O8)/MAX($B8,O8))</f>
+        <f t="shared" si="6"/>
         <v>0.13524243065847977</v>
       </c>
       <c r="Q8">
         <v>18605</v>
       </c>
       <c r="R8" s="2">
-        <f>(ABS($B8-Q8)/MAX($B8,Q8))</f>
+        <f t="shared" si="7"/>
         <v>1.5191615498623755E-2</v>
       </c>
       <c r="S8">
         <v>16337</v>
       </c>
       <c r="T8" s="2">
-        <f>(ABS($B8-S8)/MAX($B8,S8))</f>
+        <f t="shared" si="8"/>
         <v>0.13524243065847977</v>
       </c>
     </row>
@@ -9398,63 +9383,63 @@
         <v>3287</v>
       </c>
       <c r="D9" s="2">
-        <f>(ABS($B9-C9)/MAX($B9,C9))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9">
         <v>1808</v>
       </c>
       <c r="F9" s="2">
-        <f>(ABS($B9-E9)/MAX($B9,E9))</f>
+        <f t="shared" si="1"/>
         <v>0.44995436568299363</v>
       </c>
       <c r="G9">
         <v>1848</v>
       </c>
       <c r="H9" s="2">
-        <f>(ABS($B9-G9)/MAX($B9,G9))</f>
+        <f t="shared" si="2"/>
         <v>0.43778521448128993</v>
       </c>
       <c r="I9">
         <v>2344</v>
       </c>
       <c r="J9" s="2">
-        <f>(ABS($B9-I9)/MAX($B9,I9))</f>
+        <f t="shared" si="3"/>
         <v>0.28688773958016428</v>
       </c>
       <c r="K9">
         <v>2176</v>
       </c>
       <c r="L9" s="2">
-        <f>(ABS($B9-K9)/MAX($B9,K9))</f>
+        <f t="shared" si="4"/>
         <v>0.33799817462731974</v>
       </c>
       <c r="M9">
         <v>1884</v>
       </c>
       <c r="N9" s="2">
-        <f>(ABS($B9-M9)/MAX($B9,M9))</f>
+        <f t="shared" si="5"/>
         <v>0.42683297839975659</v>
       </c>
       <c r="O9">
         <v>1906</v>
       </c>
       <c r="P9" s="2">
-        <f>(ABS($B9-O9)/MAX($B9,O9))</f>
+        <f t="shared" si="6"/>
         <v>0.42013994523881959</v>
       </c>
       <c r="Q9">
         <v>1720</v>
       </c>
       <c r="R9" s="2">
-        <f>(ABS($B9-Q9)/MAX($B9,Q9))</f>
+        <f t="shared" si="7"/>
         <v>0.47672649832674169</v>
       </c>
       <c r="S9">
         <v>2112</v>
       </c>
       <c r="T9" s="2">
-        <f>(ABS($B9-S9)/MAX($B9,S9))</f>
+        <f t="shared" si="8"/>
         <v>0.35746881655004564</v>
       </c>
     </row>
@@ -9466,63 +9451,63 @@
         <v>1774</v>
       </c>
       <c r="D10" s="2">
-        <f>(ABS($B10-C10)/MAX($B10,C10))</f>
+        <f t="shared" si="0"/>
         <v>0.31026438569206843</v>
       </c>
       <c r="E10">
         <v>2346</v>
       </c>
       <c r="F10" s="2">
-        <f>(ABS($B10-E10)/MAX($B10,E10))</f>
+        <f t="shared" si="1"/>
         <v>8.7869362363919123E-2</v>
       </c>
       <c r="G10">
         <v>1894</v>
       </c>
       <c r="H10" s="2">
-        <f>(ABS($B10-G10)/MAX($B10,G10))</f>
+        <f t="shared" si="2"/>
         <v>0.26360808709175737</v>
       </c>
       <c r="I10">
         <v>2448</v>
       </c>
       <c r="J10" s="2">
-        <f>(ABS($B10-I10)/MAX($B10,I10))</f>
+        <f t="shared" si="3"/>
         <v>4.821150855365474E-2</v>
       </c>
       <c r="K10">
         <v>2121</v>
       </c>
       <c r="L10" s="2">
-        <f>(ABS($B10-K10)/MAX($B10,K10))</f>
+        <f t="shared" si="4"/>
         <v>0.17534992223950233</v>
       </c>
       <c r="M10">
         <v>2312</v>
       </c>
       <c r="N10" s="2">
-        <f>(ABS($B10-M10)/MAX($B10,M10))</f>
+        <f t="shared" si="5"/>
         <v>0.10108864696734059</v>
       </c>
       <c r="O10">
         <v>2087</v>
       </c>
       <c r="P10" s="2">
-        <f>(ABS($B10-O10)/MAX($B10,O10))</f>
+        <f t="shared" si="6"/>
         <v>0.1885692068429238</v>
       </c>
       <c r="Q10">
         <v>2121</v>
       </c>
       <c r="R10" s="2">
-        <f>(ABS($B10-Q10)/MAX($B10,Q10))</f>
+        <f t="shared" si="7"/>
         <v>0.17534992223950233</v>
       </c>
       <c r="S10">
         <v>1888</v>
       </c>
       <c r="T10" s="2">
-        <f>(ABS($B10-S10)/MAX($B10,S10))</f>
+        <f t="shared" si="8"/>
         <v>0.26594090202177295</v>
       </c>
     </row>
@@ -9534,63 +9519,63 @@
         <v>2072</v>
       </c>
       <c r="D11" s="2">
-        <f>(ABS($B11-C11)/MAX($B11,C11))</f>
+        <f t="shared" si="0"/>
         <v>0.13522537562604339</v>
       </c>
       <c r="E11">
         <v>2072</v>
       </c>
       <c r="F11" s="2">
-        <f>(ABS($B11-E11)/MAX($B11,E11))</f>
+        <f t="shared" si="1"/>
         <v>0.13522537562604339</v>
       </c>
       <c r="G11">
         <v>2109</v>
       </c>
       <c r="H11" s="2">
-        <f>(ABS($B11-G11)/MAX($B11,G11))</f>
+        <f t="shared" si="2"/>
         <v>0.1197829716193656</v>
       </c>
       <c r="I11">
         <v>2072</v>
       </c>
       <c r="J11" s="2">
-        <f>(ABS($B11-I11)/MAX($B11,I11))</f>
+        <f t="shared" si="3"/>
         <v>0.13522537562604339</v>
       </c>
       <c r="K11">
         <v>1938</v>
       </c>
       <c r="L11" s="2">
-        <f>(ABS($B11-K11)/MAX($B11,K11))</f>
+        <f t="shared" si="4"/>
         <v>0.19115191986644409</v>
       </c>
       <c r="M11">
         <v>2109</v>
       </c>
       <c r="N11" s="2">
-        <f>(ABS($B11-M11)/MAX($B11,M11))</f>
+        <f t="shared" si="5"/>
         <v>0.1197829716193656</v>
       </c>
       <c r="O11">
         <v>2262</v>
       </c>
       <c r="P11" s="2">
-        <f>(ABS($B11-O11)/MAX($B11,O11))</f>
+        <f t="shared" si="6"/>
         <v>5.5926544240400666E-2</v>
       </c>
       <c r="Q11">
         <v>2109</v>
       </c>
       <c r="R11" s="2">
-        <f>(ABS($B11-Q11)/MAX($B11,Q11))</f>
+        <f t="shared" si="7"/>
         <v>0.1197829716193656</v>
       </c>
       <c r="S11">
         <v>2193</v>
       </c>
       <c r="T11" s="2">
-        <f>(ABS($B11-S11)/MAX($B11,S11))</f>
+        <f t="shared" si="8"/>
         <v>8.4724540901502499E-2</v>
       </c>
     </row>
@@ -9605,63 +9590,63 @@
         <v>143016</v>
       </c>
       <c r="D12" s="2">
-        <f>(ABS($B12-C12)/MAX($B12,C12))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12">
         <v>143016</v>
       </c>
       <c r="F12" s="2">
-        <f>(ABS($B12-E12)/MAX($B12,E12))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G12">
         <v>140362</v>
       </c>
       <c r="H12" s="2">
-        <f>(ABS($B12-G12)/MAX($B12,G12))</f>
+        <f t="shared" si="2"/>
         <v>1.8557364210997372E-2</v>
       </c>
       <c r="I12">
         <v>143016</v>
       </c>
       <c r="J12" s="2">
-        <f>(ABS($B12-I12)/MAX($B12,I12))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K12">
         <v>142272</v>
       </c>
       <c r="L12" s="2">
-        <f>(ABS($B12-K12)/MAX($B12,K12))</f>
+        <f t="shared" si="4"/>
         <v>5.2022151367679143E-3</v>
       </c>
       <c r="M12">
         <v>143016</v>
       </c>
       <c r="N12" s="2">
-        <f>(ABS($B12-M12)/MAX($B12,M12))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O12">
         <v>142307</v>
       </c>
       <c r="P12" s="2">
-        <f>(ABS($B12-O12)/MAX($B12,O12))</f>
+        <f t="shared" si="6"/>
         <v>4.9574872741511436E-3</v>
       </c>
       <c r="Q12">
         <v>142220</v>
       </c>
       <c r="R12" s="2">
-        <f>(ABS($B12-Q12)/MAX($B12,Q12))</f>
+        <f t="shared" si="7"/>
         <v>5.5658108183699725E-3</v>
       </c>
       <c r="S12">
         <v>143016</v>
       </c>
       <c r="T12" s="2">
-        <f>(ABS($B12-S12)/MAX($B12,S12))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9673,63 +9658,63 @@
         <v>162987</v>
       </c>
       <c r="D13" s="2">
-        <f>(ABS($B13-C13)/MAX($B13,C13))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13">
         <v>162987</v>
       </c>
       <c r="F13" s="2">
-        <f>(ABS($B13-E13)/MAX($B13,E13))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G13">
         <v>162987</v>
       </c>
       <c r="H13" s="2">
-        <f>(ABS($B13-G13)/MAX($B13,G13))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I13">
         <v>162987</v>
       </c>
       <c r="J13" s="2">
-        <f>(ABS($B13-I13)/MAX($B13,I13))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K13">
         <v>162987</v>
       </c>
       <c r="L13" s="2">
-        <f>(ABS($B13-K13)/MAX($B13,K13))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M13">
         <v>162987</v>
       </c>
       <c r="N13" s="2">
-        <f>(ABS($B13-M13)/MAX($B13,M13))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O13">
         <v>162987</v>
       </c>
       <c r="P13" s="2">
-        <f>(ABS($B13-O13)/MAX($B13,O13))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q13">
         <v>162987</v>
       </c>
       <c r="R13" s="2">
-        <f>(ABS($B13-Q13)/MAX($B13,Q13))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S13">
         <v>162987</v>
       </c>
       <c r="T13" s="2">
-        <f>(ABS($B13-S13)/MAX($B13,S13))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9741,63 +9726,63 @@
         <v>157990</v>
       </c>
       <c r="D14" s="2">
-        <f>(ABS($B14-C14)/MAX($B14,C14))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14">
         <v>157990</v>
       </c>
       <c r="F14" s="2">
-        <f>(ABS($B14-E14)/MAX($B14,E14))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G14">
         <v>155923</v>
       </c>
       <c r="H14" s="2">
-        <f>(ABS($B14-G14)/MAX($B14,G14))</f>
+        <f t="shared" si="2"/>
         <v>1.3083106525729476E-2</v>
       </c>
       <c r="I14">
         <v>157990</v>
       </c>
       <c r="J14" s="2">
-        <f>(ABS($B14-I14)/MAX($B14,I14))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K14">
         <v>157990</v>
       </c>
       <c r="L14" s="2">
-        <f>(ABS($B14-K14)/MAX($B14,K14))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M14">
         <v>157990</v>
       </c>
       <c r="N14" s="2">
-        <f>(ABS($B14-M14)/MAX($B14,M14))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O14">
         <v>157990</v>
       </c>
       <c r="P14" s="2">
-        <f>(ABS($B14-O14)/MAX($B14,O14))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q14">
         <v>157990</v>
       </c>
       <c r="R14" s="2">
-        <f>(ABS($B14-Q14)/MAX($B14,Q14))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S14">
         <v>157990</v>
       </c>
       <c r="T14" s="2">
-        <f>(ABS($B14-S14)/MAX($B14,S14))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9809,63 +9794,63 @@
         <v>176272</v>
       </c>
       <c r="D15" s="2">
-        <f>(ABS($B15-C15)/MAX($B15,C15))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15">
         <v>176272</v>
       </c>
       <c r="F15" s="2">
-        <f>(ABS($B15-E15)/MAX($B15,E15))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G15">
         <v>176272</v>
       </c>
       <c r="H15" s="2">
-        <f>(ABS($B15-G15)/MAX($B15,G15))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I15">
         <v>176272</v>
       </c>
       <c r="J15" s="2">
-        <f>(ABS($B15-I15)/MAX($B15,I15))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K15">
         <v>176272</v>
       </c>
       <c r="L15" s="2">
-        <f>(ABS($B15-K15)/MAX($B15,K15))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M15">
         <v>176272</v>
       </c>
       <c r="N15" s="2">
-        <f>(ABS($B15-M15)/MAX($B15,M15))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O15">
         <v>176272</v>
       </c>
       <c r="P15" s="2">
-        <f>(ABS($B15-O15)/MAX($B15,O15))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q15">
         <v>176272</v>
       </c>
       <c r="R15" s="2">
-        <f>(ABS($B15-Q15)/MAX($B15,Q15))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S15">
         <v>176272</v>
       </c>
       <c r="T15" s="2">
-        <f>(ABS($B15-S15)/MAX($B15,S15))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9877,63 +9862,63 @@
         <v>60858</v>
       </c>
       <c r="D16" s="2">
-        <f>(ABS($B16-C16)/MAX($B16,C16))</f>
+        <f t="shared" si="0"/>
         <v>3.1802345005329559E-2</v>
       </c>
       <c r="E16">
         <v>62072</v>
       </c>
       <c r="F16" s="2">
-        <f>(ABS($B16-E16)/MAX($B16,E16))</f>
+        <f t="shared" si="1"/>
         <v>1.2488664746965333E-2</v>
       </c>
       <c r="G16">
         <v>61246</v>
       </c>
       <c r="H16" s="2">
-        <f>(ABS($B16-G16)/MAX($B16,G16))</f>
+        <f t="shared" si="2"/>
         <v>2.5629603703644782E-2</v>
       </c>
       <c r="I16">
         <v>62340</v>
       </c>
       <c r="J16" s="2">
-        <f>(ABS($B16-I16)/MAX($B16,I16))</f>
+        <f t="shared" si="3"/>
         <v>8.2250186932243032E-3</v>
       </c>
       <c r="K16">
         <v>62857</v>
       </c>
       <c r="L16" s="2">
-        <f>(ABS($B16-K16)/MAX($B16,K16))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M16">
         <v>62857</v>
       </c>
       <c r="N16" s="2">
-        <f>(ABS($B16-M16)/MAX($B16,M16))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O16">
         <v>62857</v>
       </c>
       <c r="P16" s="2">
-        <f>(ABS($B16-O16)/MAX($B16,O16))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q16">
         <v>62857</v>
       </c>
       <c r="R16" s="2">
-        <f>(ABS($B16-Q16)/MAX($B16,Q16))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S16">
         <v>62857</v>
       </c>
       <c r="T16" s="2">
-        <f>(ABS($B16-S16)/MAX($B16,S16))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9945,63 +9930,63 @@
         <v>64688</v>
       </c>
       <c r="D17" s="2">
-        <f>(ABS($B17-C17)/MAX($B17,C17))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17">
         <v>64688</v>
       </c>
       <c r="F17" s="2">
-        <f>(ABS($B17-E17)/MAX($B17,E17))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G17">
         <v>63621</v>
       </c>
       <c r="H17" s="2">
-        <f>(ABS($B17-G17)/MAX($B17,G17))</f>
+        <f t="shared" si="2"/>
         <v>1.6494558496166212E-2</v>
       </c>
       <c r="I17">
         <v>64688</v>
       </c>
       <c r="J17" s="2">
-        <f>(ABS($B17-I17)/MAX($B17,I17))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K17">
         <v>64688</v>
       </c>
       <c r="L17" s="2">
-        <f>(ABS($B17-K17)/MAX($B17,K17))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M17">
         <v>64688</v>
       </c>
       <c r="N17" s="2">
-        <f>(ABS($B17-M17)/MAX($B17,M17))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O17">
         <v>64688</v>
       </c>
       <c r="P17" s="2">
-        <f>(ABS($B17-O17)/MAX($B17,O17))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q17">
         <v>64688</v>
       </c>
       <c r="R17" s="2">
-        <f>(ABS($B17-Q17)/MAX($B17,Q17))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S17">
         <v>63279</v>
       </c>
       <c r="T17" s="2">
-        <f>(ABS($B17-S17)/MAX($B17,S17))</f>
+        <f t="shared" si="8"/>
         <v>2.1781474152856788E-2</v>
       </c>
     </row>
@@ -10013,63 +9998,63 @@
         <v>53137</v>
       </c>
       <c r="D18" s="2">
-        <f>(ABS($B18-C18)/MAX($B18,C18))</f>
+        <f t="shared" si="0"/>
         <v>0.19016993065609997</v>
       </c>
       <c r="E18">
         <v>65615</v>
       </c>
       <c r="F18" s="2">
-        <f>(ABS($B18-E18)/MAX($B18,E18))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G18">
         <v>65615</v>
       </c>
       <c r="H18" s="2">
-        <f>(ABS($B18-G18)/MAX($B18,G18))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I18">
         <v>65615</v>
       </c>
       <c r="J18" s="2">
-        <f>(ABS($B18-I18)/MAX($B18,I18))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K18">
         <v>65615</v>
       </c>
       <c r="L18" s="2">
-        <f>(ABS($B18-K18)/MAX($B18,K18))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M18">
         <v>65615</v>
       </c>
       <c r="N18" s="2">
-        <f>(ABS($B18-M18)/MAX($B18,M18))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O18">
         <v>65615</v>
       </c>
       <c r="P18" s="2">
-        <f>(ABS($B18-O18)/MAX($B18,O18))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q18">
         <v>65615</v>
       </c>
       <c r="R18" s="2">
-        <f>(ABS($B18-Q18)/MAX($B18,Q18))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S18">
         <v>65615</v>
       </c>
       <c r="T18" s="2">
-        <f>(ABS($B18-S18)/MAX($B18,S18))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10081,63 +10066,63 @@
         <v>50782</v>
       </c>
       <c r="D19" s="2">
-        <f>(ABS($B19-C19)/MAX($B19,C19))</f>
+        <f t="shared" si="0"/>
         <v>4.2549853918704287E-3</v>
       </c>
       <c r="E19">
         <v>40165</v>
       </c>
       <c r="F19" s="2">
-        <f>(ABS($B19-E19)/MAX($B19,E19))</f>
+        <f t="shared" si="1"/>
         <v>0.21243553795172454</v>
       </c>
       <c r="G19">
         <v>50999</v>
       </c>
       <c r="H19" s="2">
-        <f>(ABS($B19-G19)/MAX($B19,G19))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I19">
         <v>50999</v>
       </c>
       <c r="J19" s="2">
-        <f>(ABS($B19-I19)/MAX($B19,I19))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K19">
         <v>40165</v>
       </c>
       <c r="L19" s="2">
-        <f>(ABS($B19-K19)/MAX($B19,K19))</f>
+        <f t="shared" si="4"/>
         <v>0.21243553795172454</v>
       </c>
       <c r="M19">
         <v>50999</v>
       </c>
       <c r="N19" s="2">
-        <f>(ABS($B19-M19)/MAX($B19,M19))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O19">
         <v>50999</v>
       </c>
       <c r="P19" s="2">
-        <f>(ABS($B19-O19)/MAX($B19,O19))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q19">
         <v>44227</v>
       </c>
       <c r="R19" s="2">
-        <f>(ABS($B19-Q19)/MAX($B19,Q19))</f>
+        <f t="shared" si="7"/>
         <v>0.13278691739053708</v>
       </c>
       <c r="S19">
         <v>50999</v>
       </c>
       <c r="T19" s="2">
-        <f>(ABS($B19-S19)/MAX($B19,S19))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10149,63 +10134,63 @@
         <v>58985</v>
       </c>
       <c r="D20" s="2">
-        <f>(ABS($B20-C20)/MAX($B20,C20))</f>
+        <f t="shared" si="0"/>
         <v>2.5476233746922861E-2</v>
       </c>
       <c r="E20">
         <v>59751</v>
       </c>
       <c r="F20" s="2">
-        <f>(ABS($B20-E20)/MAX($B20,E20))</f>
+        <f t="shared" si="1"/>
         <v>1.2820724635286732E-2</v>
       </c>
       <c r="G20">
         <v>60527</v>
       </c>
       <c r="H20" s="2">
-        <f>(ABS($B20-G20)/MAX($B20,G20))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I20">
         <v>60527</v>
       </c>
       <c r="J20" s="2">
-        <f>(ABS($B20-I20)/MAX($B20,I20))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K20">
         <v>60527</v>
       </c>
       <c r="L20" s="2">
-        <f>(ABS($B20-K20)/MAX($B20,K20))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M20">
         <v>60527</v>
       </c>
       <c r="N20" s="2">
-        <f>(ABS($B20-M20)/MAX($B20,M20))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O20">
         <v>60527</v>
       </c>
       <c r="P20" s="2">
-        <f>(ABS($B20-O20)/MAX($B20,O20))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q20">
         <v>60527</v>
       </c>
       <c r="R20" s="2">
-        <f>(ABS($B20-Q20)/MAX($B20,Q20))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S20">
         <v>59751</v>
       </c>
       <c r="T20" s="2">
-        <f>(ABS($B20-S20)/MAX($B20,S20))</f>
+        <f t="shared" si="8"/>
         <v>1.2820724635286732E-2</v>
       </c>
     </row>
@@ -10217,63 +10202,63 @@
         <v>50581</v>
       </c>
       <c r="D21" s="2">
-        <f>(ABS($B21-C21)/MAX($B21,C21))</f>
+        <f t="shared" si="0"/>
         <v>0.16878656412278972</v>
       </c>
       <c r="E21">
         <v>60480</v>
       </c>
       <c r="F21" s="2">
-        <f>(ABS($B21-E21)/MAX($B21,E21))</f>
+        <f t="shared" si="1"/>
         <v>6.1131926641688032E-3</v>
       </c>
       <c r="G21">
         <v>60852</v>
       </c>
       <c r="H21" s="2">
-        <f>(ABS($B21-G21)/MAX($B21,G21))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I21">
         <v>60852</v>
       </c>
       <c r="J21" s="2">
-        <f>(ABS($B21-I21)/MAX($B21,I21))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K21">
         <v>60852</v>
       </c>
       <c r="L21" s="2">
-        <f>(ABS($B21-K21)/MAX($B21,K21))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M21">
         <v>60852</v>
       </c>
       <c r="N21" s="2">
-        <f>(ABS($B21-M21)/MAX($B21,M21))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O21">
         <v>60852</v>
       </c>
       <c r="P21" s="2">
-        <f>(ABS($B21-O21)/MAX($B21,O21))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q21">
         <v>60852</v>
       </c>
       <c r="R21" s="2">
-        <f>(ABS($B21-Q21)/MAX($B21,Q21))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S21">
         <v>60852</v>
       </c>
       <c r="T21" s="2">
-        <f>(ABS($B21-S21)/MAX($B21,S21))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10422,7 +10407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF0AD35-35A1-4B40-B7D6-8C55B4F950E4}">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
@@ -10474,56 +10459,56 @@
         <v>13965</v>
       </c>
       <c r="D2" s="2">
-        <f>(ABS($B2-C2)/MAX($B2,C2))</f>
+        <f t="shared" ref="D2:D21" si="0">(ABS($B2-C2)/MAX($B2,C2))</f>
         <v>0.39553304765614855</v>
       </c>
       <c r="E2">
         <v>13965</v>
       </c>
       <c r="F2" s="2">
-        <f>(ABS($B2-E2)/MAX($B2,E2))</f>
+        <f t="shared" ref="F2:F21" si="1">(ABS($B2-E2)/MAX($B2,E2))</f>
         <v>0.39553304765614855</v>
       </c>
       <c r="G2">
         <v>13577</v>
       </c>
       <c r="H2" s="2">
-        <f>(ABS($B2-G2)/MAX($B2,G2))</f>
+        <f t="shared" ref="H2:H21" si="2">(ABS($B2-G2)/MAX($B2,G2))</f>
         <v>0.41232740336752804</v>
       </c>
       <c r="I2">
         <v>14016</v>
       </c>
       <c r="J2" s="2">
-        <f>(ABS($B2-I2)/MAX($B2,I2))</f>
+        <f t="shared" ref="J2:J21" si="3">(ABS($B2-I2)/MAX($B2,I2))</f>
         <v>0.39332554213738474</v>
       </c>
       <c r="K2">
         <v>17525</v>
       </c>
       <c r="L2" s="2">
-        <f>(ABS($B2-K2)/MAX($B2,K2))</f>
+        <f t="shared" ref="L2:L21" si="4">(ABS($B2-K2)/MAX($B2,K2))</f>
         <v>0.24144050556204821</v>
       </c>
       <c r="M2">
         <v>13575</v>
       </c>
       <c r="N2" s="2">
-        <f>(ABS($B2-M2)/MAX($B2,M2))</f>
+        <f t="shared" ref="N2:N21" si="5">(ABS($B2-M2)/MAX($B2,M2))</f>
         <v>0.41241397221140114</v>
       </c>
       <c r="O2">
         <v>13965</v>
       </c>
       <c r="P2" s="2">
-        <f>(ABS($B2-O2)/MAX($B2,O2))</f>
+        <f t="shared" ref="P2:P21" si="6">(ABS($B2-O2)/MAX($B2,O2))</f>
         <v>0.39553304765614855</v>
       </c>
       <c r="Q2">
         <v>13575</v>
       </c>
       <c r="R2" s="2">
-        <f>(ABS($B2-Q2)/MAX($B2,Q2))</f>
+        <f t="shared" ref="R2:R21" si="7">(ABS($B2-Q2)/MAX($B2,Q2))</f>
         <v>0.41241397221140114</v>
       </c>
       <c r="T2" s="2"/>
@@ -10536,56 +10521,56 @@
         <v>14742</v>
       </c>
       <c r="D3" s="2">
-        <f>(ABS($B3-C3)/MAX($B3,C3))</f>
+        <f t="shared" si="0"/>
         <v>5.639121807591372E-2</v>
       </c>
       <c r="E3">
         <v>14742</v>
       </c>
       <c r="F3" s="2">
-        <f>(ABS($B3-E3)/MAX($B3,E3))</f>
+        <f t="shared" si="1"/>
         <v>5.639121807591372E-2</v>
       </c>
       <c r="G3">
         <v>15382</v>
       </c>
       <c r="H3" s="2">
-        <f>(ABS($B3-G3)/MAX($B3,G3))</f>
+        <f t="shared" si="2"/>
         <v>1.5425974524739167E-2</v>
       </c>
       <c r="I3">
         <v>15382</v>
       </c>
       <c r="J3" s="2">
-        <f>(ABS($B3-I3)/MAX($B3,I3))</f>
+        <f t="shared" si="3"/>
         <v>1.5425974524739167E-2</v>
       </c>
       <c r="K3">
         <v>14742</v>
       </c>
       <c r="L3" s="2">
-        <f>(ABS($B3-K3)/MAX($B3,K3))</f>
+        <f t="shared" si="4"/>
         <v>5.639121807591372E-2</v>
       </c>
       <c r="M3">
         <v>14742</v>
       </c>
       <c r="N3" s="2">
-        <f>(ABS($B3-M3)/MAX($B3,M3))</f>
+        <f t="shared" si="5"/>
         <v>5.639121807591372E-2</v>
       </c>
       <c r="O3">
         <v>15382</v>
       </c>
       <c r="P3" s="2">
-        <f>(ABS($B3-O3)/MAX($B3,O3))</f>
+        <f t="shared" si="6"/>
         <v>1.5425974524739167E-2</v>
       </c>
       <c r="Q3">
         <v>15382</v>
       </c>
       <c r="R3" s="2">
-        <f>(ABS($B3-Q3)/MAX($B3,Q3))</f>
+        <f t="shared" si="7"/>
         <v>1.5425974524739167E-2</v>
       </c>
       <c r="T3" s="2"/>
@@ -10598,56 +10583,56 @@
         <v>13288</v>
       </c>
       <c r="D4" s="2">
-        <f>(ABS($B4-C4)/MAX($B4,C4))</f>
+        <f t="shared" si="0"/>
         <v>0.22401308105582807</v>
       </c>
       <c r="E4">
         <v>14032</v>
       </c>
       <c r="F4" s="2">
-        <f>(ABS($B4-E4)/MAX($B4,E4))</f>
+        <f t="shared" si="1"/>
         <v>0.18056528848399905</v>
       </c>
       <c r="G4">
         <v>14910</v>
       </c>
       <c r="H4" s="2">
-        <f>(ABS($B4-G4)/MAX($B4,G4))</f>
+        <f t="shared" si="2"/>
         <v>0.12929222144358796</v>
       </c>
       <c r="I4">
         <v>14032</v>
       </c>
       <c r="J4" s="2">
-        <f>(ABS($B4-I4)/MAX($B4,I4))</f>
+        <f t="shared" si="3"/>
         <v>0.18056528848399905</v>
       </c>
       <c r="K4">
         <v>13494</v>
       </c>
       <c r="L4" s="2">
-        <f>(ABS($B4-K4)/MAX($B4,K4))</f>
+        <f t="shared" si="4"/>
         <v>0.21198318149964962</v>
       </c>
       <c r="M4">
         <v>13494</v>
       </c>
       <c r="N4" s="2">
-        <f>(ABS($B4-M4)/MAX($B4,M4))</f>
+        <f t="shared" si="5"/>
         <v>0.21198318149964962</v>
       </c>
       <c r="O4">
         <v>17124</v>
       </c>
       <c r="P4" s="2">
-        <f>(ABS($B4-O4)/MAX($B4,O4))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q4">
         <v>14032</v>
       </c>
       <c r="R4" s="2">
-        <f>(ABS($B4-Q4)/MAX($B4,Q4))</f>
+        <f t="shared" si="7"/>
         <v>0.18056528848399905</v>
       </c>
       <c r="T4" s="2"/>
@@ -10660,56 +10645,56 @@
         <v>16399</v>
       </c>
       <c r="D5" s="2">
-        <f>(ABS($B5-C5)/MAX($B5,C5))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5">
         <v>14838</v>
       </c>
       <c r="F5" s="2">
-        <f>(ABS($B5-E5)/MAX($B5,E5))</f>
+        <f t="shared" si="1"/>
         <v>9.5188731020184159E-2</v>
       </c>
       <c r="G5">
         <v>16399</v>
       </c>
       <c r="H5" s="2">
-        <f>(ABS($B5-G5)/MAX($B5,G5))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5">
         <v>13099</v>
       </c>
       <c r="J5" s="2">
-        <f>(ABS($B5-I5)/MAX($B5,I5))</f>
+        <f t="shared" si="3"/>
         <v>0.20123178242575768</v>
       </c>
       <c r="K5">
         <v>16032</v>
       </c>
       <c r="L5" s="2">
-        <f>(ABS($B5-K5)/MAX($B5,K5))</f>
+        <f t="shared" si="4"/>
         <v>2.2379413378864565E-2</v>
       </c>
       <c r="M5">
         <v>16399</v>
       </c>
       <c r="N5" s="2">
-        <f>(ABS($B5-M5)/MAX($B5,M5))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O5">
         <v>16399</v>
       </c>
       <c r="P5" s="2">
-        <f>(ABS($B5-O5)/MAX($B5,O5))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q5">
         <v>16399</v>
       </c>
       <c r="R5" s="2">
-        <f>(ABS($B5-Q5)/MAX($B5,Q5))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T5" s="2"/>
@@ -10722,56 +10707,56 @@
         <v>14761</v>
       </c>
       <c r="D6" s="2">
-        <f>(ABS($B6-C6)/MAX($B6,C6))</f>
+        <f t="shared" si="0"/>
         <v>0.26616952522992793</v>
       </c>
       <c r="E6">
         <v>16706</v>
       </c>
       <c r="F6" s="2">
-        <f>(ABS($B6-E6)/MAX($B6,E6))</f>
+        <f t="shared" si="1"/>
         <v>0.16947551578424061</v>
       </c>
       <c r="G6">
         <v>15809</v>
       </c>
       <c r="H6" s="2">
-        <f>(ABS($B6-G6)/MAX($B6,G6))</f>
+        <f t="shared" si="2"/>
         <v>0.21406910265970669</v>
       </c>
       <c r="I6">
         <v>16206</v>
       </c>
       <c r="J6" s="2">
-        <f>(ABS($B6-I6)/MAX($B6,I6))</f>
+        <f t="shared" si="3"/>
         <v>0.19433258762117822</v>
       </c>
       <c r="K6">
         <v>17845</v>
       </c>
       <c r="L6" s="2">
-        <f>(ABS($B6-K6)/MAX($B6,K6))</f>
+        <f t="shared" si="4"/>
         <v>0.11285110613969675</v>
       </c>
       <c r="M6">
         <v>16706</v>
       </c>
       <c r="N6" s="2">
-        <f>(ABS($B6-M6)/MAX($B6,M6))</f>
+        <f t="shared" si="5"/>
         <v>0.16947551578424061</v>
       </c>
       <c r="O6">
         <v>15604</v>
       </c>
       <c r="P6" s="2">
-        <f>(ABS($B6-O6)/MAX($B6,O6))</f>
+        <f t="shared" si="6"/>
         <v>0.22426050211285112</v>
       </c>
       <c r="Q6">
         <v>15584</v>
       </c>
       <c r="R6" s="2">
-        <f>(ABS($B6-Q6)/MAX($B6,Q6))</f>
+        <f t="shared" si="7"/>
         <v>0.22525478498632862</v>
       </c>
       <c r="T6" s="2"/>
@@ -10784,56 +10769,56 @@
         <v>18573</v>
       </c>
       <c r="D7" s="2">
-        <f>(ABS($B7-C7)/MAX($B7,C7))</f>
+        <f t="shared" si="0"/>
         <v>4.7391906447145714E-2</v>
       </c>
       <c r="E7">
         <v>15817</v>
       </c>
       <c r="F7" s="2">
-        <f>(ABS($B7-E7)/MAX($B7,E7))</f>
+        <f t="shared" si="1"/>
         <v>0.18874698671590501</v>
       </c>
       <c r="G7">
         <v>14630</v>
       </c>
       <c r="H7" s="2">
-        <f>(ABS($B7-G7)/MAX($B7,G7))</f>
+        <f t="shared" si="2"/>
         <v>0.24962814792019286</v>
       </c>
       <c r="I7">
         <v>15817</v>
       </c>
       <c r="J7" s="2">
-        <f>(ABS($B7-I7)/MAX($B7,I7))</f>
+        <f t="shared" si="3"/>
         <v>0.18874698671590501</v>
       </c>
       <c r="K7">
         <v>15817</v>
       </c>
       <c r="L7" s="2">
-        <f>(ABS($B7-K7)/MAX($B7,K7))</f>
+        <f t="shared" si="4"/>
         <v>0.18874698671590501</v>
       </c>
       <c r="M7">
         <v>18573</v>
       </c>
       <c r="N7" s="2">
-        <f>(ABS($B7-M7)/MAX($B7,M7))</f>
+        <f t="shared" si="5"/>
         <v>4.7391906447145714E-2</v>
       </c>
       <c r="O7">
         <v>18573</v>
       </c>
       <c r="P7" s="2">
-        <f>(ABS($B7-O7)/MAX($B7,O7))</f>
+        <f t="shared" si="6"/>
         <v>4.7391906447145714E-2</v>
       </c>
       <c r="Q7">
         <v>15817</v>
       </c>
       <c r="R7" s="2">
-        <f>(ABS($B7-Q7)/MAX($B7,Q7))</f>
+        <f t="shared" si="7"/>
         <v>0.18874698671590501</v>
       </c>
       <c r="T7" s="2"/>
@@ -10846,56 +10831,56 @@
         <v>14953</v>
       </c>
       <c r="D8" s="2">
-        <f>(ABS($B8-C8)/MAX($B8,C8))</f>
+        <f t="shared" si="0"/>
         <v>0.2085009527842473</v>
       </c>
       <c r="E8">
         <v>14953</v>
       </c>
       <c r="F8" s="2">
-        <f>(ABS($B8-E8)/MAX($B8,E8))</f>
+        <f t="shared" si="1"/>
         <v>0.2085009527842473</v>
       </c>
       <c r="G8">
         <v>14953</v>
       </c>
       <c r="H8" s="2">
-        <f>(ABS($B8-G8)/MAX($B8,G8))</f>
+        <f t="shared" si="2"/>
         <v>0.2085009527842473</v>
       </c>
       <c r="I8">
         <v>13801</v>
       </c>
       <c r="J8" s="2">
-        <f>(ABS($B8-I8)/MAX($B8,I8))</f>
+        <f t="shared" si="3"/>
         <v>0.26947914461147576</v>
       </c>
       <c r="K8">
         <v>18561</v>
       </c>
       <c r="L8" s="2">
-        <f>(ABS($B8-K8)/MAX($B8,K8))</f>
+        <f t="shared" si="4"/>
         <v>1.752064365869151E-2</v>
       </c>
       <c r="M8">
         <v>14953</v>
       </c>
       <c r="N8" s="2">
-        <f>(ABS($B8-M8)/MAX($B8,M8))</f>
+        <f t="shared" si="5"/>
         <v>0.2085009527842473</v>
       </c>
       <c r="O8">
         <v>14954</v>
       </c>
       <c r="P8" s="2">
-        <f>(ABS($B8-O8)/MAX($B8,O8))</f>
+        <f t="shared" si="6"/>
         <v>0.20844802032606394</v>
       </c>
       <c r="Q8">
         <v>14953</v>
       </c>
       <c r="R8" s="2">
-        <f>(ABS($B8-Q8)/MAX($B8,Q8))</f>
+        <f t="shared" si="7"/>
         <v>0.2085009527842473</v>
       </c>
       <c r="T8" s="2"/>
@@ -10908,56 +10893,56 @@
         <v>1709</v>
       </c>
       <c r="D9" s="2">
-        <f>(ABS($B9-C9)/MAX($B9,C9))</f>
+        <f t="shared" si="0"/>
         <v>0.48007301490721022</v>
       </c>
       <c r="E9">
         <v>1704</v>
       </c>
       <c r="F9" s="2">
-        <f>(ABS($B9-E9)/MAX($B9,E9))</f>
+        <f t="shared" si="1"/>
         <v>0.48159415880742318</v>
       </c>
       <c r="G9">
         <v>1873</v>
       </c>
       <c r="H9" s="2">
-        <f>(ABS($B9-G9)/MAX($B9,G9))</f>
+        <f t="shared" si="2"/>
         <v>0.43017949498022512</v>
       </c>
       <c r="I9">
         <v>1622</v>
       </c>
       <c r="J9" s="2">
-        <f>(ABS($B9-I9)/MAX($B9,I9))</f>
+        <f t="shared" si="3"/>
         <v>0.50654091877091578</v>
       </c>
       <c r="K9">
         <v>1720</v>
       </c>
       <c r="L9" s="2">
-        <f>(ABS($B9-K9)/MAX($B9,K9))</f>
+        <f t="shared" si="4"/>
         <v>0.47672649832674169</v>
       </c>
       <c r="M9">
         <v>3287</v>
       </c>
       <c r="N9" s="2">
-        <f>(ABS($B9-M9)/MAX($B9,M9))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O9">
         <v>2045</v>
       </c>
       <c r="P9" s="2">
-        <f>(ABS($B9-O9)/MAX($B9,O9))</f>
+        <f t="shared" si="6"/>
         <v>0.3778521448128993</v>
       </c>
       <c r="Q9">
         <v>2371</v>
       </c>
       <c r="R9" s="2">
-        <f>(ABS($B9-Q9)/MAX($B9,Q9))</f>
+        <f t="shared" si="7"/>
         <v>0.27867356251901432</v>
       </c>
       <c r="T9" s="2"/>
@@ -10970,56 +10955,56 @@
         <v>2121</v>
       </c>
       <c r="D10" s="2">
-        <f>(ABS($B10-C10)/MAX($B10,C10))</f>
+        <f t="shared" si="0"/>
         <v>0.17534992223950233</v>
       </c>
       <c r="E10">
         <v>2211</v>
       </c>
       <c r="F10" s="2">
-        <f>(ABS($B10-E10)/MAX($B10,E10))</f>
+        <f t="shared" si="1"/>
         <v>0.14035769828926906</v>
       </c>
       <c r="G10">
         <v>2346</v>
       </c>
       <c r="H10" s="2">
-        <f>(ABS($B10-G10)/MAX($B10,G10))</f>
+        <f t="shared" si="2"/>
         <v>8.7869362363919123E-2</v>
       </c>
       <c r="I10">
         <v>1963</v>
       </c>
       <c r="J10" s="2">
-        <f>(ABS($B10-I10)/MAX($B10,I10))</f>
+        <f t="shared" si="3"/>
         <v>0.23678071539657855</v>
       </c>
       <c r="K10">
         <v>2087</v>
       </c>
       <c r="L10" s="2">
-        <f>(ABS($B10-K10)/MAX($B10,K10))</f>
+        <f t="shared" si="4"/>
         <v>0.1885692068429238</v>
       </c>
       <c r="M10">
         <v>2448</v>
       </c>
       <c r="N10" s="2">
-        <f>(ABS($B10-M10)/MAX($B10,M10))</f>
+        <f t="shared" si="5"/>
         <v>4.821150855365474E-2</v>
       </c>
       <c r="O10">
         <v>1865</v>
       </c>
       <c r="P10" s="2">
-        <f>(ABS($B10-O10)/MAX($B10,O10))</f>
+        <f t="shared" si="6"/>
         <v>0.27488335925349922</v>
       </c>
       <c r="Q10">
         <v>1809</v>
       </c>
       <c r="R10" s="2">
-        <f>(ABS($B10-Q10)/MAX($B10,Q10))</f>
+        <f t="shared" si="7"/>
         <v>0.29665629860031106</v>
       </c>
       <c r="T10" s="2"/>
@@ -11032,56 +11017,56 @@
         <v>2126</v>
       </c>
       <c r="D11" s="2">
-        <f>(ABS($B11-C11)/MAX($B11,C11))</f>
+        <f t="shared" si="0"/>
         <v>0.11268781302170283</v>
       </c>
       <c r="E11">
         <v>2136</v>
       </c>
       <c r="F11" s="2">
-        <f>(ABS($B11-E11)/MAX($B11,E11))</f>
+        <f t="shared" si="1"/>
         <v>0.10851419031719532</v>
       </c>
       <c r="G11">
         <v>2115</v>
       </c>
       <c r="H11" s="2">
-        <f>(ABS($B11-G11)/MAX($B11,G11))</f>
+        <f t="shared" si="2"/>
         <v>0.1172787979966611</v>
       </c>
       <c r="I11">
         <v>2174</v>
       </c>
       <c r="J11" s="2">
-        <f>(ABS($B11-I11)/MAX($B11,I11))</f>
+        <f t="shared" si="3"/>
         <v>9.2654424040066782E-2</v>
       </c>
       <c r="K11">
         <v>2060</v>
       </c>
       <c r="L11" s="2">
-        <f>(ABS($B11-K11)/MAX($B11,K11))</f>
+        <f t="shared" si="4"/>
         <v>0.14023372287145242</v>
       </c>
       <c r="M11">
         <v>2109</v>
       </c>
       <c r="N11" s="2">
-        <f>(ABS($B11-M11)/MAX($B11,M11))</f>
+        <f t="shared" si="5"/>
         <v>0.1197829716193656</v>
       </c>
       <c r="O11">
         <v>2072</v>
       </c>
       <c r="P11" s="2">
-        <f>(ABS($B11-O11)/MAX($B11,O11))</f>
+        <f t="shared" si="6"/>
         <v>0.13522537562604339</v>
       </c>
       <c r="Q11">
         <v>2136</v>
       </c>
       <c r="R11" s="2">
-        <f>(ABS($B11-Q11)/MAX($B11,Q11))</f>
+        <f t="shared" si="7"/>
         <v>0.10851419031719532</v>
       </c>
       <c r="T11" s="2"/>
@@ -11097,56 +11082,56 @@
         <v>143016</v>
       </c>
       <c r="D12" s="2">
-        <f>(ABS($B12-C12)/MAX($B12,C12))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12">
         <v>114280</v>
       </c>
       <c r="F12" s="2">
-        <f>(ABS($B12-E12)/MAX($B12,E12))</f>
+        <f t="shared" si="1"/>
         <v>0.20092856743301449</v>
       </c>
       <c r="G12">
         <v>143016</v>
       </c>
       <c r="H12" s="2">
-        <f>(ABS($B12-G12)/MAX($B12,G12))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I12">
         <v>142307</v>
       </c>
       <c r="J12" s="2">
-        <f>(ABS($B12-I12)/MAX($B12,I12))</f>
+        <f t="shared" si="3"/>
         <v>4.9574872741511436E-3</v>
       </c>
       <c r="K12">
         <v>143016</v>
       </c>
       <c r="L12" s="2">
-        <f>(ABS($B12-K12)/MAX($B12,K12))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M12">
         <v>140465</v>
       </c>
       <c r="N12" s="2">
-        <f>(ABS($B12-M12)/MAX($B12,M12))</f>
+        <f t="shared" si="5"/>
         <v>1.7837165072439449E-2</v>
       </c>
       <c r="O12">
         <v>143016</v>
       </c>
       <c r="P12" s="2">
-        <f>(ABS($B12-O12)/MAX($B12,O12))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q12">
         <v>143016</v>
       </c>
       <c r="R12" s="2">
-        <f>(ABS($B12-Q12)/MAX($B12,Q12))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T12" s="2"/>
@@ -11159,56 +11144,56 @@
         <v>162987</v>
       </c>
       <c r="D13" s="2">
-        <f>(ABS($B13-C13)/MAX($B13,C13))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13">
         <v>162987</v>
       </c>
       <c r="F13" s="2">
-        <f>(ABS($B13-E13)/MAX($B13,E13))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G13">
         <v>162987</v>
       </c>
       <c r="H13" s="2">
-        <f>(ABS($B13-G13)/MAX($B13,G13))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I13">
         <v>162987</v>
       </c>
       <c r="J13" s="2">
-        <f>(ABS($B13-I13)/MAX($B13,I13))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K13">
         <v>162987</v>
       </c>
       <c r="L13" s="2">
-        <f>(ABS($B13-K13)/MAX($B13,K13))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M13">
         <v>162987</v>
       </c>
       <c r="N13" s="2">
-        <f>(ABS($B13-M13)/MAX($B13,M13))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O13">
         <v>162987</v>
       </c>
       <c r="P13" s="2">
-        <f>(ABS($B13-O13)/MAX($B13,O13))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q13">
         <v>162987</v>
       </c>
       <c r="R13" s="2">
-        <f>(ABS($B13-Q13)/MAX($B13,Q13))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T13" s="2"/>
@@ -11221,56 +11206,56 @@
         <v>157990</v>
       </c>
       <c r="D14" s="2">
-        <f>(ABS($B14-C14)/MAX($B14,C14))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14">
         <v>157990</v>
       </c>
       <c r="F14" s="2">
-        <f>(ABS($B14-E14)/MAX($B14,E14))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G14">
         <v>157990</v>
       </c>
       <c r="H14" s="2">
-        <f>(ABS($B14-G14)/MAX($B14,G14))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I14">
         <v>157990</v>
       </c>
       <c r="J14" s="2">
-        <f>(ABS($B14-I14)/MAX($B14,I14))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K14">
         <v>157990</v>
       </c>
       <c r="L14" s="2">
-        <f>(ABS($B14-K14)/MAX($B14,K14))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M14">
         <v>157990</v>
       </c>
       <c r="N14" s="2">
-        <f>(ABS($B14-M14)/MAX($B14,M14))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O14">
         <v>157990</v>
       </c>
       <c r="P14" s="2">
-        <f>(ABS($B14-O14)/MAX($B14,O14))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q14">
         <v>157990</v>
       </c>
       <c r="R14" s="2">
-        <f>(ABS($B14-Q14)/MAX($B14,Q14))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T14" s="2"/>
@@ -11283,56 +11268,56 @@
         <v>176272</v>
       </c>
       <c r="D15" s="2">
-        <f>(ABS($B15-C15)/MAX($B15,C15))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15">
         <v>176272</v>
       </c>
       <c r="F15" s="2">
-        <f>(ABS($B15-E15)/MAX($B15,E15))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G15">
         <v>176272</v>
       </c>
       <c r="H15" s="2">
-        <f>(ABS($B15-G15)/MAX($B15,G15))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I15">
         <v>176272</v>
       </c>
       <c r="J15" s="2">
-        <f>(ABS($B15-I15)/MAX($B15,I15))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K15">
         <v>176272</v>
       </c>
       <c r="L15" s="2">
-        <f>(ABS($B15-K15)/MAX($B15,K15))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M15">
         <v>176272</v>
       </c>
       <c r="N15" s="2">
-        <f>(ABS($B15-M15)/MAX($B15,M15))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O15">
         <v>176272</v>
       </c>
       <c r="P15" s="2">
-        <f>(ABS($B15-O15)/MAX($B15,O15))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q15">
         <v>176272</v>
       </c>
       <c r="R15" s="2">
-        <f>(ABS($B15-Q15)/MAX($B15,Q15))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T15" s="2"/>
@@ -11345,56 +11330,56 @@
         <v>62857</v>
       </c>
       <c r="D16" s="2">
-        <f>(ABS($B16-C16)/MAX($B16,C16))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16">
         <v>62340</v>
       </c>
       <c r="F16" s="2">
-        <f>(ABS($B16-E16)/MAX($B16,E16))</f>
+        <f t="shared" si="1"/>
         <v>8.2250186932243032E-3</v>
       </c>
       <c r="G16">
         <v>62340</v>
       </c>
       <c r="H16" s="2">
-        <f>(ABS($B16-G16)/MAX($B16,G16))</f>
+        <f t="shared" si="2"/>
         <v>8.2250186932243032E-3</v>
       </c>
       <c r="I16">
         <v>62857</v>
       </c>
       <c r="J16" s="2">
-        <f>(ABS($B16-I16)/MAX($B16,I16))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K16">
         <v>62857</v>
       </c>
       <c r="L16" s="2">
-        <f>(ABS($B16-K16)/MAX($B16,K16))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M16">
         <v>62857</v>
       </c>
       <c r="N16" s="2">
-        <f>(ABS($B16-M16)/MAX($B16,M16))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O16">
         <v>62857</v>
       </c>
       <c r="P16" s="2">
-        <f>(ABS($B16-O16)/MAX($B16,O16))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q16">
         <v>62857</v>
       </c>
       <c r="R16" s="2">
-        <f>(ABS($B16-Q16)/MAX($B16,Q16))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T16" s="2"/>
@@ -11407,56 +11392,56 @@
         <v>64688</v>
       </c>
       <c r="D17" s="2">
-        <f>(ABS($B17-C17)/MAX($B17,C17))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17">
         <v>64688</v>
       </c>
       <c r="F17" s="2">
-        <f>(ABS($B17-E17)/MAX($B17,E17))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G17">
         <v>64688</v>
       </c>
       <c r="H17" s="2">
-        <f>(ABS($B17-G17)/MAX($B17,G17))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I17">
         <v>64161</v>
       </c>
       <c r="J17" s="2">
-        <f>(ABS($B17-I17)/MAX($B17,I17))</f>
+        <f t="shared" si="3"/>
         <v>8.1467969329705667E-3</v>
       </c>
       <c r="K17">
         <v>64161</v>
       </c>
       <c r="L17" s="2">
-        <f>(ABS($B17-K17)/MAX($B17,K17))</f>
+        <f t="shared" si="4"/>
         <v>8.1467969329705667E-3</v>
       </c>
       <c r="M17">
         <v>64161</v>
       </c>
       <c r="N17" s="2">
-        <f>(ABS($B17-M17)/MAX($B17,M17))</f>
+        <f t="shared" si="5"/>
         <v>8.1467969329705667E-3</v>
       </c>
       <c r="O17">
         <v>63279</v>
       </c>
       <c r="P17" s="2">
-        <f>(ABS($B17-O17)/MAX($B17,O17))</f>
+        <f t="shared" si="6"/>
         <v>2.1781474152856788E-2</v>
       </c>
       <c r="Q17">
         <v>64688</v>
       </c>
       <c r="R17" s="2">
-        <f>(ABS($B17-Q17)/MAX($B17,Q17))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T17" s="2"/>
@@ -11469,56 +11454,56 @@
         <v>65615</v>
       </c>
       <c r="D18" s="2">
-        <f>(ABS($B18-C18)/MAX($B18,C18))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18">
         <v>65615</v>
       </c>
       <c r="F18" s="2">
-        <f>(ABS($B18-E18)/MAX($B18,E18))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G18">
         <v>65615</v>
       </c>
       <c r="H18" s="2">
-        <f>(ABS($B18-G18)/MAX($B18,G18))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I18">
         <v>65615</v>
       </c>
       <c r="J18" s="2">
-        <f>(ABS($B18-I18)/MAX($B18,I18))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K18">
         <v>65615</v>
       </c>
       <c r="L18" s="2">
-        <f>(ABS($B18-K18)/MAX($B18,K18))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M18">
         <v>65615</v>
       </c>
       <c r="N18" s="2">
-        <f>(ABS($B18-M18)/MAX($B18,M18))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O18">
         <v>65615</v>
       </c>
       <c r="P18" s="2">
-        <f>(ABS($B18-O18)/MAX($B18,O18))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q18">
         <v>65615</v>
       </c>
       <c r="R18" s="2">
-        <f>(ABS($B18-Q18)/MAX($B18,Q18))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T18" s="2"/>
@@ -11531,56 +11516,56 @@
         <v>50999</v>
       </c>
       <c r="D19" s="2">
-        <f>(ABS($B19-C19)/MAX($B19,C19))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19">
         <v>50428</v>
       </c>
       <c r="F19" s="2">
-        <f>(ABS($B19-E19)/MAX($B19,E19))</f>
+        <f t="shared" si="1"/>
         <v>1.1196297966626797E-2</v>
       </c>
       <c r="G19">
         <v>50999</v>
       </c>
       <c r="H19" s="2">
-        <f>(ABS($B19-G19)/MAX($B19,G19))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I19">
         <v>50999</v>
       </c>
       <c r="J19" s="2">
-        <f>(ABS($B19-I19)/MAX($B19,I19))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K19">
         <v>50999</v>
       </c>
       <c r="L19" s="2">
-        <f>(ABS($B19-K19)/MAX($B19,K19))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M19">
         <v>50999</v>
       </c>
       <c r="N19" s="2">
-        <f>(ABS($B19-M19)/MAX($B19,M19))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O19">
         <v>50999</v>
       </c>
       <c r="P19" s="2">
-        <f>(ABS($B19-O19)/MAX($B19,O19))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q19">
         <v>40165</v>
       </c>
       <c r="R19" s="2">
-        <f>(ABS($B19-Q19)/MAX($B19,Q19))</f>
+        <f t="shared" si="7"/>
         <v>0.21243553795172454</v>
       </c>
       <c r="T19" s="2"/>
@@ -11593,56 +11578,56 @@
         <v>59880</v>
       </c>
       <c r="D20" s="2">
-        <f>(ABS($B20-C20)/MAX($B20,C20))</f>
+        <f t="shared" si="0"/>
         <v>1.0689444380193962E-2</v>
       </c>
       <c r="E20">
         <v>58985</v>
       </c>
       <c r="F20" s="2">
-        <f>(ABS($B20-E20)/MAX($B20,E20))</f>
+        <f t="shared" si="1"/>
         <v>2.5476233746922861E-2</v>
       </c>
       <c r="G20">
         <v>59751</v>
       </c>
       <c r="H20" s="2">
-        <f>(ABS($B20-G20)/MAX($B20,G20))</f>
+        <f t="shared" si="2"/>
         <v>1.2820724635286732E-2</v>
       </c>
       <c r="I20">
         <v>59751</v>
       </c>
       <c r="J20" s="2">
-        <f>(ABS($B20-I20)/MAX($B20,I20))</f>
+        <f t="shared" si="3"/>
         <v>1.2820724635286732E-2</v>
       </c>
       <c r="K20">
         <v>60527</v>
       </c>
       <c r="L20" s="2">
-        <f>(ABS($B20-K20)/MAX($B20,K20))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M20">
         <v>59751</v>
       </c>
       <c r="N20" s="2">
-        <f>(ABS($B20-M20)/MAX($B20,M20))</f>
+        <f t="shared" si="5"/>
         <v>1.2820724635286732E-2</v>
       </c>
       <c r="O20">
         <v>59751</v>
       </c>
       <c r="P20" s="2">
-        <f>(ABS($B20-O20)/MAX($B20,O20))</f>
+        <f t="shared" si="6"/>
         <v>1.2820724635286732E-2</v>
       </c>
       <c r="Q20">
         <v>60527</v>
       </c>
       <c r="R20" s="2">
-        <f>(ABS($B20-Q20)/MAX($B20,Q20))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T20" s="2"/>
@@ -11655,56 +11640,56 @@
         <v>60852</v>
       </c>
       <c r="D21" s="2">
-        <f>(ABS($B21-C21)/MAX($B21,C21))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E21">
         <v>60852</v>
       </c>
       <c r="F21" s="2">
-        <f>(ABS($B21-E21)/MAX($B21,E21))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G21">
         <v>60852</v>
       </c>
       <c r="H21" s="2">
-        <f>(ABS($B21-G21)/MAX($B21,G21))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I21">
         <v>60852</v>
       </c>
       <c r="J21" s="2">
-        <f>(ABS($B21-I21)/MAX($B21,I21))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K21">
         <v>60852</v>
       </c>
       <c r="L21" s="2">
-        <f>(ABS($B21-K21)/MAX($B21,K21))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M21">
         <v>60852</v>
       </c>
       <c r="N21" s="2">
-        <f>(ABS($B21-M21)/MAX($B21,M21))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O21">
         <v>60852</v>
       </c>
       <c r="P21" s="2">
-        <f>(ABS($B21-O21)/MAX($B21,O21))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q21">
         <v>60852</v>
       </c>
       <c r="R21" s="2">
-        <f>(ABS($B21-Q21)/MAX($B21,Q21))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T21" s="2"/>
@@ -11835,6 +11820,1749 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B5877F-5068-487A-A918-E0ED297A0E84}">
+  <dimension ref="A1:T36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>10540</v>
+      </c>
+      <c r="C2">
+        <v>10540</v>
+      </c>
+      <c r="D2" s="3">
+        <f>AVERAGE(B2-C2)/MAX(B2,C2)</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>143016</v>
+      </c>
+      <c r="F2">
+        <v>143016</v>
+      </c>
+      <c r="G2" s="3">
+        <f>AVERAGE(E2-F2)/MAX(E2,F2)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>23103</v>
+      </c>
+      <c r="I2">
+        <v>13965</v>
+      </c>
+      <c r="J2" s="3">
+        <f>AVERAGE(H2-I2)/MAX(H2,I2)</f>
+        <v>0.39553304765614855</v>
+      </c>
+      <c r="K2">
+        <v>99578</v>
+      </c>
+      <c r="L2">
+        <v>65621</v>
+      </c>
+      <c r="M2" s="3">
+        <f>AVERAGE(K2-L2)/MAX(K2,L2)</f>
+        <v>0.34100905822571248</v>
+      </c>
+      <c r="N2">
+        <v>73</v>
+      </c>
+      <c r="O2">
+        <v>62</v>
+      </c>
+      <c r="P2" s="3">
+        <f>AVERAGE(N2-O2)/MAX(N2,O2)</f>
+        <v>0.15068493150684931</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>12019</v>
+      </c>
+      <c r="C3">
+        <v>12019</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D31" si="0">AVERAGE(B3-C3)/MAX(B3,C3)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>162987</v>
+      </c>
+      <c r="F3">
+        <v>162987</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G31" si="1">AVERAGE(E3-F3)/MAX(E3,F3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>15623</v>
+      </c>
+      <c r="I3">
+        <v>14742</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J31" si="2">AVERAGE(H3-I3)/MAX(H3,I3)</f>
+        <v>5.639121807591372E-2</v>
+      </c>
+      <c r="K3">
+        <v>67319</v>
+      </c>
+      <c r="L3">
+        <v>53853</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" ref="M3:M31" si="3">AVERAGE(K3-L3)/MAX(K3,L3)</f>
+        <v>0.20003268022400808</v>
+      </c>
+      <c r="N3">
+        <v>67</v>
+      </c>
+      <c r="O3">
+        <v>66</v>
+      </c>
+      <c r="P3" s="3">
+        <f t="shared" ref="P3:P31" si="4">AVERAGE(N3-O3)/MAX(N3,O3)</f>
+        <v>1.4925373134328358E-2</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>11646</v>
+      </c>
+      <c r="C4">
+        <v>11646</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>157990</v>
+      </c>
+      <c r="F4">
+        <v>157990</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>17124</v>
+      </c>
+      <c r="I4">
+        <v>15567</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="2"/>
+        <v>9.0925017519271192E-2</v>
+      </c>
+      <c r="K4">
+        <v>73797</v>
+      </c>
+      <c r="L4">
+        <v>60458</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18075260511944929</v>
+      </c>
+      <c r="N4">
+        <v>80</v>
+      </c>
+      <c r="O4">
+        <v>80</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>13001</v>
+      </c>
+      <c r="C5">
+        <v>13001</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>176272</v>
+      </c>
+      <c r="F5">
+        <v>176272</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>16399</v>
+      </c>
+      <c r="I5">
+        <v>16399</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>70650</v>
+      </c>
+      <c r="L5">
+        <v>70650</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>75</v>
+      </c>
+      <c r="O5">
+        <v>75</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>11870</v>
+      </c>
+      <c r="C6">
+        <v>11870</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>62857</v>
+      </c>
+      <c r="F6">
+        <v>62857</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>20115</v>
+      </c>
+      <c r="I6">
+        <v>16623</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="2"/>
+        <v>0.17360178970917226</v>
+      </c>
+      <c r="K6">
+        <v>141979</v>
+      </c>
+      <c r="L6">
+        <v>126281</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" si="3"/>
+        <v>0.11056564703230759</v>
+      </c>
+      <c r="N6">
+        <v>69</v>
+      </c>
+      <c r="O6">
+        <v>69</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>12212</v>
+      </c>
+      <c r="C7">
+        <v>12212</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>64688</v>
+      </c>
+      <c r="F7">
+        <v>64688</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>19497</v>
+      </c>
+      <c r="I7">
+        <v>16860</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.13525157716571781</v>
+      </c>
+      <c r="K7">
+        <v>137596</v>
+      </c>
+      <c r="L7">
+        <v>131067</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="3"/>
+        <v>4.7450507282188435E-2</v>
+      </c>
+      <c r="N7">
+        <v>68</v>
+      </c>
+      <c r="O7">
+        <v>68</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>12386</v>
+      </c>
+      <c r="C8">
+        <v>12386</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>65615</v>
+      </c>
+      <c r="F8">
+        <v>65615</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>18892</v>
+      </c>
+      <c r="I8">
+        <v>14953</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.2085009527842473</v>
+      </c>
+      <c r="K8">
+        <v>133338</v>
+      </c>
+      <c r="L8">
+        <v>105506</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" si="3"/>
+        <v>0.20873269435569755</v>
+      </c>
+      <c r="N8">
+        <v>71</v>
+      </c>
+      <c r="O8">
+        <v>71</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>21879</v>
+      </c>
+      <c r="C9">
+        <v>19265</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.11947529594588419</v>
+      </c>
+      <c r="E9">
+        <v>50999</v>
+      </c>
+      <c r="F9">
+        <v>50999</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>3287</v>
+      </c>
+      <c r="I9">
+        <v>2159</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="2"/>
+        <v>0.34317006388804383</v>
+      </c>
+      <c r="K9">
+        <v>166779</v>
+      </c>
+      <c r="L9">
+        <v>91436</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" si="3"/>
+        <v>0.45175351812878123</v>
+      </c>
+      <c r="N9">
+        <v>80</v>
+      </c>
+      <c r="O9">
+        <v>80</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>25968</v>
+      </c>
+      <c r="C10">
+        <v>25968</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>60527</v>
+      </c>
+      <c r="F10">
+        <v>60527</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2572</v>
+      </c>
+      <c r="I10">
+        <v>1894</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="2"/>
+        <v>0.26360808709175737</v>
+      </c>
+      <c r="K10">
+        <v>130515</v>
+      </c>
+      <c r="L10">
+        <v>111841</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" si="3"/>
+        <v>0.14307933953951654</v>
+      </c>
+      <c r="N10">
+        <v>83</v>
+      </c>
+      <c r="O10">
+        <v>81</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="4"/>
+        <v>2.4096385542168676E-2</v>
+      </c>
+      <c r="R10" s="2"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>26110</v>
+      </c>
+      <c r="C11">
+        <v>26110</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>60852</v>
+      </c>
+      <c r="F11">
+        <v>60852</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2396</v>
+      </c>
+      <c r="I11">
+        <v>2072</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="2"/>
+        <v>0.13522537562604339</v>
+      </c>
+      <c r="K11">
+        <v>121274</v>
+      </c>
+      <c r="L11">
+        <v>107530</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="3"/>
+        <v>0.11333014496099741</v>
+      </c>
+      <c r="N11">
+        <v>73</v>
+      </c>
+      <c r="O11">
+        <v>38</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="4"/>
+        <v>0.47945205479452052</v>
+      </c>
+      <c r="R11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>31519</v>
+      </c>
+      <c r="C12">
+        <v>31519</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>73469</v>
+      </c>
+      <c r="F12">
+        <v>73469</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>2722</v>
+      </c>
+      <c r="I12">
+        <v>2287</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.15980896399706099</v>
+      </c>
+      <c r="K12">
+        <v>138132</v>
+      </c>
+      <c r="L12">
+        <v>109141</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" si="3"/>
+        <v>0.20987895636058262</v>
+      </c>
+      <c r="N12">
+        <v>71</v>
+      </c>
+      <c r="O12">
+        <v>71</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>22955</v>
+      </c>
+      <c r="C13">
+        <v>22955</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>53508</v>
+      </c>
+      <c r="F13">
+        <v>53508</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>2397</v>
+      </c>
+      <c r="I13">
+        <v>1917</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="2"/>
+        <v>0.20025031289111389</v>
+      </c>
+      <c r="K13">
+        <v>121265</v>
+      </c>
+      <c r="L13">
+        <v>121265</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>90</v>
+      </c>
+      <c r="O13">
+        <v>90</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="2"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>17304</v>
+      </c>
+      <c r="C14">
+        <v>17304</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>40325</v>
+      </c>
+      <c r="F14">
+        <v>39368</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="1"/>
+        <v>2.3732176069435833E-2</v>
+      </c>
+      <c r="H14">
+        <v>3458</v>
+      </c>
+      <c r="I14">
+        <v>2256</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="2"/>
+        <v>0.34759976865240022</v>
+      </c>
+      <c r="K14">
+        <v>175634</v>
+      </c>
+      <c r="L14">
+        <v>105994</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" si="3"/>
+        <v>0.39650637120375326</v>
+      </c>
+      <c r="N14">
+        <v>48</v>
+      </c>
+      <c r="O14">
+        <v>48</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="2"/>
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>22625</v>
+      </c>
+      <c r="C15">
+        <v>22625</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>235029</v>
+      </c>
+      <c r="F15">
+        <v>235029</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>2330</v>
+      </c>
+      <c r="I15">
+        <v>2311</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="2"/>
+        <v>8.1545064377682407E-3</v>
+      </c>
+      <c r="K15">
+        <v>118038</v>
+      </c>
+      <c r="L15">
+        <v>109373</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="3"/>
+        <v>7.340856334400786E-2</v>
+      </c>
+      <c r="N15">
+        <v>75</v>
+      </c>
+      <c r="O15">
+        <v>75</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="2"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>25381</v>
+      </c>
+      <c r="C16">
+        <v>25381</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>263657</v>
+      </c>
+      <c r="F16">
+        <v>263657</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>3359</v>
+      </c>
+      <c r="I16">
+        <v>2614</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="2"/>
+        <v>0.22179220005954153</v>
+      </c>
+      <c r="K16">
+        <v>170623</v>
+      </c>
+      <c r="L16">
+        <v>139036</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18512744471730072</v>
+      </c>
+      <c r="N16">
+        <v>91</v>
+      </c>
+      <c r="O16">
+        <v>91</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>23713</v>
+      </c>
+      <c r="C17">
+        <v>23713</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>246366</v>
+      </c>
+      <c r="F17">
+        <v>243718</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0748236363783964E-2</v>
+      </c>
+      <c r="H17">
+        <v>2415</v>
+      </c>
+      <c r="I17">
+        <v>1963</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="2"/>
+        <v>0.18716356107660456</v>
+      </c>
+      <c r="K17">
+        <v>122407</v>
+      </c>
+      <c r="L17">
+        <v>99308</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18870652822142525</v>
+      </c>
+      <c r="N17">
+        <v>61</v>
+      </c>
+      <c r="O17">
+        <v>57</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="4"/>
+        <v>6.5573770491803282E-2</v>
+      </c>
+      <c r="R17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>23206</v>
+      </c>
+      <c r="C18">
+        <v>23206</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>241053</v>
+      </c>
+      <c r="F18">
+        <v>238598</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="1"/>
+        <v>1.018448225079132E-2</v>
+      </c>
+      <c r="H18">
+        <v>3134</v>
+      </c>
+      <c r="I18">
+        <v>2238</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="2"/>
+        <v>0.28589661774090619</v>
+      </c>
+      <c r="K18">
+        <v>58191</v>
+      </c>
+      <c r="L18">
+        <v>55246</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" si="3"/>
+        <v>5.0609200735508925E-2</v>
+      </c>
+      <c r="N18">
+        <v>54</v>
+      </c>
+      <c r="O18">
+        <v>40</v>
+      </c>
+      <c r="P18" s="3">
+        <f t="shared" si="4"/>
+        <v>0.25925925925925924</v>
+      </c>
+      <c r="R18" s="2"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>34892</v>
+      </c>
+      <c r="C19">
+        <v>34534</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0260231571706982E-2</v>
+      </c>
+      <c r="E19">
+        <v>271861</v>
+      </c>
+      <c r="F19">
+        <v>271861</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>18418</v>
+      </c>
+      <c r="I19">
+        <v>16161</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="2"/>
+        <v>0.12254316429579759</v>
+      </c>
+      <c r="K19">
+        <v>47447</v>
+      </c>
+      <c r="L19">
+        <v>40274</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" si="3"/>
+        <v>0.15117921048749131</v>
+      </c>
+      <c r="N19">
+        <v>70</v>
+      </c>
+      <c r="O19">
+        <v>70</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="2"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>35091</v>
+      </c>
+      <c r="C20">
+        <v>35091</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>273389</v>
+      </c>
+      <c r="F20">
+        <v>273389</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>21131</v>
+      </c>
+      <c r="I20">
+        <v>15017</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.28933793952013631</v>
+      </c>
+      <c r="K20">
+        <v>54438</v>
+      </c>
+      <c r="L20">
+        <v>37460</v>
+      </c>
+      <c r="M20" s="3">
+        <f t="shared" si="3"/>
+        <v>0.31187773246629191</v>
+      </c>
+      <c r="N20">
+        <v>74</v>
+      </c>
+      <c r="O20">
+        <v>74</v>
+      </c>
+      <c r="P20" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="T20" s="2"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>34166</v>
+      </c>
+      <c r="C21">
+        <v>34166</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>266209</v>
+      </c>
+      <c r="F21">
+        <v>264214</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="1"/>
+        <v>7.4941117693241022E-3</v>
+      </c>
+      <c r="H21">
+        <v>19079</v>
+      </c>
+      <c r="I21">
+        <v>16134</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="2"/>
+        <v>0.15435819487394517</v>
+      </c>
+      <c r="K21">
+        <v>49148</v>
+      </c>
+      <c r="L21">
+        <v>46704</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" si="3"/>
+        <v>4.9727354114104338E-2</v>
+      </c>
+      <c r="N21">
+        <v>41</v>
+      </c>
+      <c r="O21">
+        <v>23</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" si="4"/>
+        <v>0.43902439024390244</v>
+      </c>
+      <c r="R21" s="2"/>
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>34740</v>
+      </c>
+      <c r="C22">
+        <v>34645</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>2.7345998848589521E-3</v>
+      </c>
+      <c r="E22">
+        <v>270652</v>
+      </c>
+      <c r="F22">
+        <v>270652</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>19079</v>
+      </c>
+      <c r="I22">
+        <v>17017</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="2"/>
+        <v>0.10807694323601866</v>
+      </c>
+      <c r="K22">
+        <v>49149</v>
+      </c>
+      <c r="L22">
+        <v>41969</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" si="3"/>
+        <v>0.14608639036399521</v>
+      </c>
+      <c r="N22">
+        <v>56</v>
+      </c>
+      <c r="O22">
+        <v>56</v>
+      </c>
+      <c r="P22" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>36093</v>
+      </c>
+      <c r="C23">
+        <v>35487</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6789959271880973E-2</v>
+      </c>
+      <c r="E23">
+        <v>281207</v>
+      </c>
+      <c r="F23">
+        <v>278822</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="1"/>
+        <v>8.4812966960281927E-3</v>
+      </c>
+      <c r="H23">
+        <v>22036</v>
+      </c>
+      <c r="I23">
+        <v>15382</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="2"/>
+        <v>0.30196042838990744</v>
+      </c>
+      <c r="K23">
+        <v>56769</v>
+      </c>
+      <c r="L23">
+        <v>48113</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="3"/>
+        <v>0.15247758459722735</v>
+      </c>
+      <c r="N23">
+        <v>45</v>
+      </c>
+      <c r="O23">
+        <v>45</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>42657</v>
+      </c>
+      <c r="C24">
+        <v>42657</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>332318</v>
+      </c>
+      <c r="F24">
+        <v>332318</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>14321</v>
+      </c>
+      <c r="I24">
+        <v>14298</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6060330982473291E-3</v>
+      </c>
+      <c r="K24">
+        <v>36877</v>
+      </c>
+      <c r="L24">
+        <v>36806</v>
+      </c>
+      <c r="M24" s="3">
+        <f t="shared" si="3"/>
+        <v>1.9253193047156765E-3</v>
+      </c>
+      <c r="N24">
+        <v>93</v>
+      </c>
+      <c r="O24">
+        <v>93</v>
+      </c>
+      <c r="P24" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="2"/>
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>26210</v>
+      </c>
+      <c r="C25">
+        <v>25841</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4078595955742084E-2</v>
+      </c>
+      <c r="E25">
+        <v>126117</v>
+      </c>
+      <c r="F25">
+        <v>126117</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>17992</v>
+      </c>
+      <c r="I25">
+        <v>16439</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="2"/>
+        <v>8.6316140506891958E-2</v>
+      </c>
+      <c r="K25">
+        <v>79672</v>
+      </c>
+      <c r="L25">
+        <v>76009</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" si="3"/>
+        <v>4.5976001606587005E-2</v>
+      </c>
+      <c r="N25">
+        <v>85</v>
+      </c>
+      <c r="O25">
+        <v>85</v>
+      </c>
+      <c r="P25" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>13712</v>
+      </c>
+      <c r="C26">
+        <v>13712</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>161708</v>
+      </c>
+      <c r="F26">
+        <v>161708</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>22614</v>
+      </c>
+      <c r="I26">
+        <v>14539</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" si="2"/>
+        <v>0.35707968515079153</v>
+      </c>
+      <c r="K26">
+        <v>100135</v>
+      </c>
+      <c r="L26">
+        <v>65130</v>
+      </c>
+      <c r="M26" s="3">
+        <f t="shared" si="3"/>
+        <v>0.34957806960603188</v>
+      </c>
+      <c r="N26">
+        <v>78</v>
+      </c>
+      <c r="O26">
+        <v>78</v>
+      </c>
+      <c r="P26" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="2"/>
+      <c r="T26" s="2"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>14960</v>
+      </c>
+      <c r="C27">
+        <v>14960</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>176374</v>
+      </c>
+      <c r="F27">
+        <v>176374</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>20748</v>
+      </c>
+      <c r="I27">
+        <v>15999</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" si="2"/>
+        <v>0.22888953152111047</v>
+      </c>
+      <c r="K27">
+        <v>91894</v>
+      </c>
+      <c r="L27">
+        <v>71059</v>
+      </c>
+      <c r="M27" s="3">
+        <f t="shared" si="3"/>
+        <v>0.22672862210808106</v>
+      </c>
+      <c r="N27">
+        <v>67</v>
+      </c>
+      <c r="O27">
+        <v>67</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>12081</v>
+      </c>
+      <c r="C28">
+        <v>12081</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>142429</v>
+      </c>
+      <c r="F28">
+        <v>142429</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>7498</v>
+      </c>
+      <c r="I28">
+        <v>6304</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="2"/>
+        <v>0.15924246465724193</v>
+      </c>
+      <c r="K28">
+        <v>85209</v>
+      </c>
+      <c r="L28">
+        <v>78575</v>
+      </c>
+      <c r="M28" s="3">
+        <f t="shared" si="3"/>
+        <v>7.7855625579457563E-2</v>
+      </c>
+      <c r="N28">
+        <v>76</v>
+      </c>
+      <c r="O28">
+        <v>57</v>
+      </c>
+      <c r="P28" s="3">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>14743</v>
+      </c>
+      <c r="C29">
+        <v>14666</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>5.2228176083565078E-3</v>
+      </c>
+      <c r="E29">
+        <v>173849</v>
+      </c>
+      <c r="F29">
+        <v>173849</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>6622</v>
+      </c>
+      <c r="I29">
+        <v>5937</v>
+      </c>
+      <c r="J29" s="3">
+        <f t="shared" si="2"/>
+        <v>0.10344306855934762</v>
+      </c>
+      <c r="K29">
+        <v>75268</v>
+      </c>
+      <c r="L29">
+        <v>68958</v>
+      </c>
+      <c r="M29" s="3">
+        <f t="shared" si="3"/>
+        <v>8.3833767338045387E-2</v>
+      </c>
+      <c r="N29">
+        <v>110</v>
+      </c>
+      <c r="O29">
+        <v>110</v>
+      </c>
+      <c r="P29" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>17496</v>
+      </c>
+      <c r="C30">
+        <v>17385</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>6.3443072702331965E-3</v>
+      </c>
+      <c r="E30">
+        <v>206340</v>
+      </c>
+      <c r="F30">
+        <v>206340</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>6446</v>
+      </c>
+      <c r="I30">
+        <v>6446</v>
+      </c>
+      <c r="J30" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>73219</v>
+      </c>
+      <c r="L30">
+        <v>72404</v>
+      </c>
+      <c r="M30" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1130990589874212E-2</v>
+      </c>
+      <c r="N30">
+        <v>58</v>
+      </c>
+      <c r="O30">
+        <v>58</v>
+      </c>
+      <c r="P30" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>14885</v>
+      </c>
+      <c r="C31">
+        <v>14885</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>175569</v>
+      </c>
+      <c r="F31">
+        <v>175569</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>8497</v>
+      </c>
+      <c r="I31">
+        <v>6487</v>
+      </c>
+      <c r="J31" s="3">
+        <f t="shared" si="2"/>
+        <v>0.23655407790985053</v>
+      </c>
+      <c r="K31">
+        <v>96646</v>
+      </c>
+      <c r="L31">
+        <v>68879</v>
+      </c>
+      <c r="M31" s="3">
+        <f t="shared" si="3"/>
+        <v>0.28730625168139395</v>
+      </c>
+      <c r="N31">
+        <v>58</v>
+      </c>
+      <c r="O31">
+        <v>58</v>
+      </c>
+      <c r="P31" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" t="s">
+        <v>15</v>
+      </c>
+      <c r="M33" t="s">
+        <v>15</v>
+      </c>
+      <c r="P33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D34" s="2">
+        <f>AVERAGE(D2:D31)</f>
+        <v>5.8301935836220951E-3</v>
+      </c>
+      <c r="G34" s="2">
+        <f>AVERAGE(G2:G31)</f>
+        <v>2.0213434383121137E-3</v>
+      </c>
+      <c r="J34" s="2">
+        <f>AVERAGE(J2:J31)</f>
+        <v>0.17874269106969998</v>
+      </c>
+      <c r="M34" s="2">
+        <f>AVERAGE(M2:M31)</f>
+        <v>0.15988753930981778</v>
+      </c>
+      <c r="P34" s="2">
+        <f>AVERAGE(P2:P31)</f>
+        <v>5.6100538832427722E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>0</v>
+      </c>
+      <c r="M35" t="s">
+        <v>0</v>
+      </c>
+      <c r="P35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D36" s="2">
+        <f>MAX(D2:D31)</f>
+        <v>0.11947529594588419</v>
+      </c>
+      <c r="G36" s="2">
+        <f>MAX(G2:G31)</f>
+        <v>2.3732176069435833E-2</v>
+      </c>
+      <c r="J36" s="2">
+        <f>MAX(J2:J31)</f>
+        <v>0.39553304765614855</v>
+      </c>
+      <c r="M36" s="2">
+        <f>MAX(M2:M31)</f>
+        <v>0.45175351812878123</v>
+      </c>
+      <c r="P36" s="2">
+        <f>MAX(P2:P31)</f>
+        <v>0.47945205479452052</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/homework/05/report/params.xlsx
+++ b/homework/05/report/params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Honza\git\NI-KOP\homework\05\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD34D506-F4DD-4DAB-934C-4CA10379B11C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5975344-4292-45DB-832D-283F66DAA280}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="16">
   <si>
     <t>max</t>
   </si>
@@ -11828,7 +11828,7 @@
   <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13482,7 +13482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>15</v>
       </c>
@@ -13498,8 +13498,11 @@
       <c r="P33" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="R33" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D34" s="2">
         <f>AVERAGE(D2:D31)</f>
         <v>5.8301935836220951E-3</v>
@@ -13520,8 +13523,12 @@
         <f>AVERAGE(P2:P31)</f>
         <v>5.6100538832427722E-2</v>
       </c>
-    </row>
-    <row r="35" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="R34" s="1">
+        <f>AVERAGE(D34,G34,J34,M34,P34)</f>
+        <v>8.0516461246775944E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>0</v>
       </c>
@@ -13537,8 +13544,11 @@
       <c r="P35" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="R35" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D36" s="2">
         <f>MAX(D2:D31)</f>
         <v>0.11947529594588419</v>
@@ -13558,6 +13568,10 @@
       <c r="P36" s="2">
         <f>MAX(P2:P31)</f>
         <v>0.47945205479452052</v>
+      </c>
+      <c r="R36" s="1">
+        <f>AVERAGE(D36,G36,J36,M36,P36)</f>
+        <v>0.29398921851895404</v>
       </c>
     </row>
   </sheetData>
